--- a/style_ids.xlsx
+++ b/style_ids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\mtb-trailmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A581371C-81E6-42F8-A652-5C0416E6757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5BCDD9-893C-4870-8C5B-5E487BC8A0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{C589A0E4-6D1B-4D89-868D-0F4B65CA5C94}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C589A0E4-6D1B-4D89-868D-0F4B65CA5C94}"/>
   </bookViews>
   <sheets>
     <sheet name="style_ids, w_o in id" sheetId="1" r:id="rId1"/>
@@ -2954,8 +2954,8 @@
   <dimension ref="A1:L427"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E437" sqref="E437"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/style_ids.xlsx
+++ b/style_ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\mtb-trailmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D74830-7C63-4E92-BE29-1D9DEC36E51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BB8D27-2110-40EE-BC89-0712C02DF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{C589A0E4-6D1B-4D89-868D-0F4B65CA5C94}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="677">
   <si>
     <t>background</t>
   </si>
@@ -1679,12 +1679,6 @@
     <t>areatype</t>
   </si>
   <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
     <t>mml_aerial_photo</t>
   </si>
   <si>
@@ -2067,6 +2061,9 @@
   </si>
   <si>
     <t>uncategorized</t>
+  </si>
+  <si>
+    <t>kapsi</t>
   </si>
 </sst>
 </file>
@@ -2943,8 +2940,8 @@
   <dimension ref="A1:K427"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C435" sqref="C435"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E326" sqref="E326:E327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2963,19 +2960,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>437</v>
@@ -2987,7 +2984,7 @@
         <v>414</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>479</v>
@@ -3011,10 +3008,10 @@
         <v>448</v>
       </c>
       <c r="G2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3035,7 +3032,7 @@
         <v>448</v>
       </c>
       <c r="G3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H3" t="s">
         <v>419</v>
@@ -3053,16 +3050,16 @@
         <v>434</v>
       </c>
       <c r="D4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F4" t="s">
         <v>448</v>
       </c>
       <c r="G4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3077,7 +3074,7 @@
         <v>434</v>
       </c>
       <c r="D5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E5" t="s">
         <v>454</v>
@@ -3086,7 +3083,7 @@
         <v>448</v>
       </c>
       <c r="G5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H5" t="s">
         <v>419</v>
@@ -3113,7 +3110,7 @@
         <v>448</v>
       </c>
       <c r="G6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H6" t="s">
         <v>419</v>
@@ -3137,7 +3134,7 @@
         <v>448</v>
       </c>
       <c r="G7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H7" t="s">
         <v>419</v>
@@ -3161,7 +3158,7 @@
         <v>448</v>
       </c>
       <c r="G8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H8" t="s">
         <v>419</v>
@@ -3185,7 +3182,7 @@
         <v>448</v>
       </c>
       <c r="G9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H9" t="s">
         <v>419</v>
@@ -3209,7 +3206,7 @@
         <v>448</v>
       </c>
       <c r="G10" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H10" t="s">
         <v>419</v>
@@ -3233,7 +3230,7 @@
         <v>448</v>
       </c>
       <c r="G11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H11" t="s">
         <v>419</v>
@@ -3257,7 +3254,7 @@
         <v>448</v>
       </c>
       <c r="G12" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H12" t="s">
         <v>419</v>
@@ -3281,7 +3278,7 @@
         <v>448</v>
       </c>
       <c r="G13" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H13" t="s">
         <v>419</v>
@@ -3305,7 +3302,7 @@
         <v>448</v>
       </c>
       <c r="G14" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H14" t="s">
         <v>419</v>
@@ -3329,10 +3326,10 @@
         <v>448</v>
       </c>
       <c r="G15" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H15" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3353,7 +3350,7 @@
         <v>448</v>
       </c>
       <c r="G16" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H16" t="s">
         <v>419</v>
@@ -3377,10 +3374,10 @@
         <v>448</v>
       </c>
       <c r="G17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3401,7 +3398,7 @@
         <v>448</v>
       </c>
       <c r="G18" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H18" t="s">
         <v>419</v>
@@ -3425,7 +3422,7 @@
         <v>448</v>
       </c>
       <c r="G19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H19" t="s">
         <v>419</v>
@@ -3449,7 +3446,7 @@
         <v>448</v>
       </c>
       <c r="G20" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H20" t="s">
         <v>419</v>
@@ -3473,7 +3470,7 @@
         <v>448</v>
       </c>
       <c r="G21" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H21" t="s">
         <v>419</v>
@@ -3497,10 +3494,10 @@
         <v>448</v>
       </c>
       <c r="G22" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H22" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3524,10 +3521,10 @@
         <v>448</v>
       </c>
       <c r="G23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3548,7 +3545,7 @@
         <v>448</v>
       </c>
       <c r="G24" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H24" t="s">
         <v>419</v>
@@ -3572,7 +3569,7 @@
         <v>448</v>
       </c>
       <c r="G25" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H25" t="s">
         <v>419</v>
@@ -3596,10 +3593,10 @@
         <v>448</v>
       </c>
       <c r="G26" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H26" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3620,10 +3617,10 @@
         <v>448</v>
       </c>
       <c r="G27" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3644,7 +3641,7 @@
         <v>448</v>
       </c>
       <c r="G28" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H28" t="s">
         <v>419</v>
@@ -3668,10 +3665,10 @@
         <v>448</v>
       </c>
       <c r="G29" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H29" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3692,10 +3689,10 @@
         <v>448</v>
       </c>
       <c r="G30" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H30" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3716,10 +3713,10 @@
         <v>421</v>
       </c>
       <c r="G31" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H31" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3734,13 +3731,13 @@
         <v>434</v>
       </c>
       <c r="D32" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F32" t="s">
         <v>448</v>
       </c>
       <c r="G32" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H32" t="s">
         <v>419</v>
@@ -3764,7 +3761,7 @@
         <v>448</v>
       </c>
       <c r="G33" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H33" t="s">
         <v>419</v>
@@ -3788,10 +3785,10 @@
         <v>448</v>
       </c>
       <c r="G34" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H34" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3806,16 +3803,16 @@
         <v>423</v>
       </c>
       <c r="D35" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F35" t="s">
         <v>448</v>
       </c>
       <c r="G35" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H35" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3836,10 +3833,10 @@
         <v>448</v>
       </c>
       <c r="G36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H36" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3860,7 +3857,7 @@
         <v>448</v>
       </c>
       <c r="G37" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H37" t="s">
         <v>419</v>
@@ -3884,7 +3881,7 @@
         <v>448</v>
       </c>
       <c r="G38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H38" t="s">
         <v>419</v>
@@ -3905,13 +3902,13 @@
         <v>442</v>
       </c>
       <c r="D39" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F39" t="s">
         <v>448</v>
       </c>
       <c r="G39" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H39" t="s">
         <v>419</v>
@@ -3929,13 +3926,13 @@
         <v>442</v>
       </c>
       <c r="D40" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F40" t="s">
         <v>448</v>
       </c>
       <c r="G40" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H40" t="s">
         <v>419</v>
@@ -3956,16 +3953,16 @@
         <v>442</v>
       </c>
       <c r="D41" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F41" t="s">
         <v>448</v>
       </c>
       <c r="G41" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H41" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3980,16 +3977,16 @@
         <v>442</v>
       </c>
       <c r="D42" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F42" t="s">
         <v>448</v>
       </c>
       <c r="G42" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H42" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>430</v>
@@ -4007,13 +4004,13 @@
         <v>442</v>
       </c>
       <c r="D43" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F43" t="s">
         <v>448</v>
       </c>
       <c r="G43" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H43" t="s">
         <v>419</v>
@@ -4031,13 +4028,13 @@
         <v>442</v>
       </c>
       <c r="D44" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F44" t="s">
         <v>448</v>
       </c>
       <c r="G44" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H44" t="s">
         <v>419</v>
@@ -4055,7 +4052,7 @@
         <v>water_contours-line_1500-(def-fin-mml_topo)</v>
       </c>
       <c r="C45" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D45" t="s">
         <v>443</v>
@@ -4064,10 +4061,10 @@
         <v>448</v>
       </c>
       <c r="G45" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H45" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,7 +4076,7 @@
         <v>water_contours-line_3000-(def-fin-mml_topo)</v>
       </c>
       <c r="C46" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D46" t="s">
         <v>444</v>
@@ -4088,10 +4085,10 @@
         <v>448</v>
       </c>
       <c r="G46" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H46" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4103,7 +4100,7 @@
         <v>water_contours-line_6000-(def-fin-mml_topo)</v>
       </c>
       <c r="C47" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D47" t="s">
         <v>445</v>
@@ -4112,10 +4109,10 @@
         <v>448</v>
       </c>
       <c r="G47" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H47" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4127,7 +4124,7 @@
         <v>water_contours-line_over6000-(def-fin-mml_topo)</v>
       </c>
       <c r="C48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D48" t="s">
         <v>446</v>
@@ -4136,10 +4133,10 @@
         <v>448</v>
       </c>
       <c r="G48" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H48" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4160,10 +4157,10 @@
         <v>448</v>
       </c>
       <c r="G49" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H49" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4175,7 +4172,7 @@
         <v>water_contours-line_label-(def-fin-mml_topo)</v>
       </c>
       <c r="C50" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D50" t="s">
         <v>449</v>
@@ -4184,10 +4181,10 @@
         <v>448</v>
       </c>
       <c r="G50" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H50" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4199,7 +4196,7 @@
         <v>water_contours-label-(def-fin-mml_topo)</v>
       </c>
       <c r="C51" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D51" t="s">
         <v>424</v>
@@ -4208,10 +4205,10 @@
         <v>448</v>
       </c>
       <c r="G51" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H51" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4232,10 +4229,10 @@
         <v>448</v>
       </c>
       <c r="G52" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H52" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4259,10 +4256,10 @@
         <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H53" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4286,10 +4283,10 @@
         <v>421</v>
       </c>
       <c r="G54" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H54" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4310,7 +4307,7 @@
         <v>448</v>
       </c>
       <c r="G55" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H55" t="s">
         <v>419</v>
@@ -4334,7 +4331,7 @@
         <v>448</v>
       </c>
       <c r="G56" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H56" t="s">
         <v>419</v>
@@ -4358,7 +4355,7 @@
         <v>448</v>
       </c>
       <c r="G57" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H57" t="s">
         <v>419</v>
@@ -4382,10 +4379,10 @@
         <v>448</v>
       </c>
       <c r="G58" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H58" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4406,10 +4403,10 @@
         <v>448</v>
       </c>
       <c r="G59" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H59" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>430</v>
@@ -4436,7 +4433,7 @@
         <v>448</v>
       </c>
       <c r="G60" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H60" t="s">
         <v>419</v>
@@ -4463,7 +4460,7 @@
         <v>448</v>
       </c>
       <c r="G61" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H61" t="s">
         <v>419</v>
@@ -4487,13 +4484,13 @@
         <v>436</v>
       </c>
       <c r="E62" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F62" t="s">
         <v>448</v>
       </c>
       <c r="G62" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H62" t="s">
         <v>419</v>
@@ -4520,7 +4517,7 @@
         <v>448</v>
       </c>
       <c r="G63" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H63" t="s">
         <v>419</v>
@@ -4547,7 +4544,7 @@
         <v>448</v>
       </c>
       <c r="G64" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H64" t="s">
         <v>419</v>
@@ -4571,13 +4568,13 @@
         <v>431</v>
       </c>
       <c r="E65" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F65" t="s">
         <v>448</v>
       </c>
       <c r="G65" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H65" t="s">
         <v>419</v>
@@ -4601,10 +4598,10 @@
         <v>448</v>
       </c>
       <c r="G66" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H66" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -4625,10 +4622,10 @@
         <v>448</v>
       </c>
       <c r="G67" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H67" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -4640,16 +4637,16 @@
         <v>hillshade-(def-all-hillshade)</v>
       </c>
       <c r="C68" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F68" t="s">
         <v>448</v>
       </c>
       <c r="G68" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H68" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -4673,13 +4670,13 @@
         <v>448</v>
       </c>
       <c r="G69" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H69" t="s">
         <v>419</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -4694,7 +4691,7 @@
         <v>412</v>
       </c>
       <c r="D70" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E70" t="s">
         <v>451</v>
@@ -4703,13 +4700,13 @@
         <v>448</v>
       </c>
       <c r="G70" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H70" t="s">
         <v>419</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -4733,13 +4730,13 @@
         <v>448</v>
       </c>
       <c r="G71" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H71" t="s">
         <v>419</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4763,13 +4760,13 @@
         <v>448</v>
       </c>
       <c r="G72" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H72" t="s">
         <v>419</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4784,7 +4781,7 @@
         <v>412</v>
       </c>
       <c r="D73" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E73" t="s">
         <v>451</v>
@@ -4793,13 +4790,13 @@
         <v>448</v>
       </c>
       <c r="G73" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H73" t="s">
         <v>419</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4814,7 +4811,7 @@
         <v>412</v>
       </c>
       <c r="D74" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E74" t="s">
         <v>451</v>
@@ -4823,13 +4820,13 @@
         <v>448</v>
       </c>
       <c r="G74" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H74" t="s">
         <v>419</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4853,13 +4850,13 @@
         <v>448</v>
       </c>
       <c r="G75" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H75" t="s">
         <v>419</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4883,13 +4880,13 @@
         <v>448</v>
       </c>
       <c r="G76" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H76" t="s">
         <v>419</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4913,13 +4910,13 @@
         <v>448</v>
       </c>
       <c r="G77" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H77" t="s">
         <v>419</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4943,13 +4940,13 @@
         <v>448</v>
       </c>
       <c r="G78" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H78" t="s">
         <v>419</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4973,13 +4970,13 @@
         <v>448</v>
       </c>
       <c r="G79" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H79" t="s">
         <v>419</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4994,7 +4991,7 @@
         <v>412</v>
       </c>
       <c r="D80" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E80" t="s">
         <v>422</v>
@@ -5003,13 +5000,13 @@
         <v>448</v>
       </c>
       <c r="G80" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H80" t="s">
         <v>419</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -5033,13 +5030,13 @@
         <v>448</v>
       </c>
       <c r="G81" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H81" t="s">
         <v>419</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -5063,13 +5060,13 @@
         <v>448</v>
       </c>
       <c r="G82" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H82" t="s">
         <v>419</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -5093,13 +5090,13 @@
         <v>448</v>
       </c>
       <c r="G83" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H83" t="s">
         <v>419</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -5114,7 +5111,7 @@
         <v>412</v>
       </c>
       <c r="D84" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E84" t="s">
         <v>422</v>
@@ -5123,13 +5120,13 @@
         <v>448</v>
       </c>
       <c r="G84" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H84" t="s">
         <v>419</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -5144,7 +5141,7 @@
         <v>412</v>
       </c>
       <c r="D85" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E85" t="s">
         <v>422</v>
@@ -5153,13 +5150,13 @@
         <v>448</v>
       </c>
       <c r="G85" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H85" t="s">
         <v>419</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -5183,13 +5180,13 @@
         <v>448</v>
       </c>
       <c r="G86" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H86" t="s">
         <v>419</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -5213,13 +5210,13 @@
         <v>448</v>
       </c>
       <c r="G87" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H87" t="s">
         <v>419</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -5240,13 +5237,13 @@
         <v>448</v>
       </c>
       <c r="G88" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H88" t="s">
         <v>419</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -5267,7 +5264,7 @@
         <v>448</v>
       </c>
       <c r="G89" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H89" t="s">
         <v>419</v>
@@ -5288,13 +5285,13 @@
         <v>470</v>
       </c>
       <c r="E90" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F90" t="s">
         <v>448</v>
       </c>
       <c r="G90" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H90" t="s">
         <v>419</v>
@@ -5315,13 +5312,13 @@
         <v>470</v>
       </c>
       <c r="E91" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F91" t="s">
         <v>448</v>
       </c>
       <c r="G91" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H91" t="s">
         <v>419</v>
@@ -5345,10 +5342,10 @@
         <v>448</v>
       </c>
       <c r="G92" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H92" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -5366,16 +5363,16 @@
         <v>470</v>
       </c>
       <c r="E93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F93" t="s">
         <v>448</v>
       </c>
       <c r="G93" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H93" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -5393,16 +5390,16 @@
         <v>470</v>
       </c>
       <c r="E94" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F94" t="s">
         <v>448</v>
       </c>
       <c r="G94" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H94" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -5423,7 +5420,7 @@
         <v>448</v>
       </c>
       <c r="G95" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H95" t="s">
         <v>419</v>
@@ -5447,7 +5444,7 @@
         <v>448</v>
       </c>
       <c r="G96" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H96" t="s">
         <v>419</v>
@@ -5471,7 +5468,7 @@
         <v>448</v>
       </c>
       <c r="G97" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H97" t="s">
         <v>419</v>
@@ -5495,7 +5492,7 @@
         <v>448</v>
       </c>
       <c r="G98" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H98" t="s">
         <v>419</v>
@@ -5522,7 +5519,7 @@
         <v>448</v>
       </c>
       <c r="G99" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H99" t="s">
         <v>419</v>
@@ -5549,7 +5546,7 @@
         <v>448</v>
       </c>
       <c r="G100" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H100" t="s">
         <v>419</v>
@@ -5573,7 +5570,7 @@
         <v>448</v>
       </c>
       <c r="G101" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H101" t="s">
         <v>419</v>
@@ -5600,7 +5597,7 @@
         <v>448</v>
       </c>
       <c r="G102" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H102" t="s">
         <v>419</v>
@@ -5627,7 +5624,7 @@
         <v>448</v>
       </c>
       <c r="G103" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H103" t="s">
         <v>419</v>
@@ -5644,14 +5641,14 @@
       <c r="C104" t="s">
         <v>474</v>
       </c>
-      <c r="E104" t="s">
+      <c r="D104" t="s">
         <v>547</v>
       </c>
       <c r="F104" t="s">
         <v>448</v>
       </c>
       <c r="G104" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H104" t="s">
         <v>419</v>
@@ -5668,14 +5665,14 @@
       <c r="C105" t="s">
         <v>474</v>
       </c>
-      <c r="E105" t="s">
+      <c r="D105" t="s">
         <v>487</v>
       </c>
       <c r="F105" t="s">
         <v>448</v>
       </c>
       <c r="G105" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H105" t="s">
         <v>419</v>
@@ -5687,22 +5684,19 @@
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>mml_aerial_photo-v1-(def-all-mml_ortho)</v>
+        <v>mml_aerial_photo-(def-all-mml_ortho)</v>
       </c>
       <c r="C106" t="s">
-        <v>550</v>
-      </c>
-      <c r="D106" t="s">
         <v>548</v>
       </c>
       <c r="F106" t="s">
         <v>448</v>
       </c>
       <c r="G106" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H106" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -5711,22 +5705,22 @@
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>mml_aerial_photo-v2-(def-all-mml_ortho_kapsi)</v>
+        <v>mml_aerial_photo-kapsi-(def-all-mml_ortho_kapsi)</v>
       </c>
       <c r="C107" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D107" t="s">
-        <v>549</v>
+        <v>676</v>
       </c>
       <c r="F107" t="s">
         <v>448</v>
       </c>
       <c r="G107" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H107" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -5738,7 +5732,7 @@
         <v>mml_basemap-simple-(def-all-mml_background)</v>
       </c>
       <c r="C108" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D108" t="s">
         <v>475</v>
@@ -5747,10 +5741,10 @@
         <v>448</v>
       </c>
       <c r="G108" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H108" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -5762,22 +5756,22 @@
         <v>highway-area_generic-(def-all-osm)</v>
       </c>
       <c r="C109" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D109" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F109" t="s">
         <v>448</v>
       </c>
       <c r="G109" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H109" t="s">
         <v>419</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -5801,7 +5795,7 @@
         <v>448</v>
       </c>
       <c r="G110" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H110" t="s">
         <v>419</v>
@@ -5828,7 +5822,7 @@
         <v>448</v>
       </c>
       <c r="G111" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H111" t="s">
         <v>419</v>
@@ -5855,7 +5849,7 @@
         <v>448</v>
       </c>
       <c r="G112" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H112" t="s">
         <v>419</v>
@@ -5870,25 +5864,25 @@
         <v>access-bicycle-no-(def-all-osm)</v>
       </c>
       <c r="C113" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D113" t="s">
         <v>477</v>
       </c>
       <c r="E113" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F113" t="s">
         <v>448</v>
       </c>
       <c r="G113" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H113" t="s">
         <v>419</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -5900,19 +5894,19 @@
         <v>access-bicycle-no-(def-all-osm-hc)</v>
       </c>
       <c r="C114" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D114" t="s">
         <v>477</v>
       </c>
       <c r="E114" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F114" t="s">
         <v>448</v>
       </c>
       <c r="G114" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H114" t="s">
         <v>419</v>
@@ -5921,7 +5915,7 @@
         <v>430</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -5933,7 +5927,7 @@
         <v>access-bicycle-discouraged-(def-all-osm)</v>
       </c>
       <c r="C115" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D115" t="s">
         <v>477</v>
@@ -5945,13 +5939,13 @@
         <v>448</v>
       </c>
       <c r="G115" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H115" t="s">
         <v>419</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -5963,7 +5957,7 @@
         <v>access-bicycle-discouraged-(def-all-osm-hc)</v>
       </c>
       <c r="C116" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D116" t="s">
         <v>477</v>
@@ -5975,7 +5969,7 @@
         <v>448</v>
       </c>
       <c r="G116" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H116" t="s">
         <v>419</v>
@@ -5984,7 +5978,7 @@
         <v>430</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -5996,25 +5990,25 @@
         <v>access-any-no-(def-all-osm)</v>
       </c>
       <c r="C117" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D117" t="s">
         <v>478</v>
       </c>
       <c r="E117" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F117" t="s">
         <v>448</v>
       </c>
       <c r="G117" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H117" t="s">
         <v>419</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -6026,19 +6020,19 @@
         <v>access-any-no-(def-all-osm-hc)</v>
       </c>
       <c r="C118" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D118" t="s">
         <v>478</v>
       </c>
       <c r="E118" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F118" t="s">
         <v>448</v>
       </c>
       <c r="G118" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H118" t="s">
         <v>419</v>
@@ -6047,7 +6041,7 @@
         <v>430</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -6059,7 +6053,7 @@
         <v>access-any-discouraged-(def-all-osm)</v>
       </c>
       <c r="C119" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D119" t="s">
         <v>478</v>
@@ -6071,13 +6065,13 @@
         <v>448</v>
       </c>
       <c r="G119" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H119" t="s">
         <v>419</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -6089,7 +6083,7 @@
         <v>access-any-discouraged-(def-all-osm-hc)</v>
       </c>
       <c r="C120" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D120" t="s">
         <v>478</v>
@@ -6101,7 +6095,7 @@
         <v>448</v>
       </c>
       <c r="G120" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H120" t="s">
         <v>419</v>
@@ -6110,7 +6104,7 @@
         <v>430</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -6122,7 +6116,7 @@
         <v>highway-path-case-(def-all-osm)</v>
       </c>
       <c r="C121" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D121" t="s">
         <v>493</v>
@@ -6134,13 +6128,13 @@
         <v>448</v>
       </c>
       <c r="G121" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H121" t="s">
         <v>419</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -6152,7 +6146,7 @@
         <v>highway-path-case-(def-all-osm-hc)</v>
       </c>
       <c r="C122" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D122" t="s">
         <v>493</v>
@@ -6164,7 +6158,7 @@
         <v>448</v>
       </c>
       <c r="G122" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H122" t="s">
         <v>419</v>
@@ -6173,7 +6167,7 @@
         <v>430</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -6185,7 +6179,7 @@
         <v>highway-path-case-(gr-all-osm)</v>
       </c>
       <c r="C123" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D123" t="s">
         <v>493</v>
@@ -6197,13 +6191,13 @@
         <v>421</v>
       </c>
       <c r="G123" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H123" t="s">
         <v>419</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -6215,7 +6209,7 @@
         <v>highway-track-case-(def-all-osm)</v>
       </c>
       <c r="C124" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D124" t="s">
         <v>432</v>
@@ -6227,13 +6221,13 @@
         <v>448</v>
       </c>
       <c r="G124" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H124" t="s">
         <v>419</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -6245,7 +6239,7 @@
         <v>highway-track-case-(def-all-osm-hc)</v>
       </c>
       <c r="C125" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D125" t="s">
         <v>432</v>
@@ -6257,7 +6251,7 @@
         <v>448</v>
       </c>
       <c r="G125" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H125" t="s">
         <v>419</v>
@@ -6266,7 +6260,7 @@
         <v>430</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -6278,7 +6272,7 @@
         <v>highway-track-case-(gr-all-osm)</v>
       </c>
       <c r="C126" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D126" t="s">
         <v>432</v>
@@ -6290,13 +6284,13 @@
         <v>421</v>
       </c>
       <c r="G126" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H126" t="s">
         <v>419</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -6308,25 +6302,25 @@
         <v>highway-path_track-case-(wnt-all-osm)</v>
       </c>
       <c r="C127" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D127" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E127" t="s">
         <v>451</v>
       </c>
       <c r="F127" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G127" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H127" t="s">
         <v>419</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -6338,10 +6332,10 @@
         <v>highway-path_track-case-(def-all-osm)</v>
       </c>
       <c r="C128" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D128" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E128" t="s">
         <v>451</v>
@@ -6350,13 +6344,13 @@
         <v>448</v>
       </c>
       <c r="G128" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H128" t="s">
         <v>419</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6368,7 +6362,7 @@
         <v>highway-cycleway-case-(def-all-osm)</v>
       </c>
       <c r="C129" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D129" t="s">
         <v>529</v>
@@ -6380,13 +6374,13 @@
         <v>448</v>
       </c>
       <c r="G129" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H129" t="s">
         <v>419</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -6398,7 +6392,7 @@
         <v>highway-cycleway-case-(def-all-osm-hc)</v>
       </c>
       <c r="C130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D130" t="s">
         <v>529</v>
@@ -6410,7 +6404,7 @@
         <v>448</v>
       </c>
       <c r="G130" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H130" t="s">
         <v>419</v>
@@ -6419,7 +6413,7 @@
         <v>430</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -6431,7 +6425,7 @@
         <v>highway-cycleway-case-(gr-all-osm)</v>
       </c>
       <c r="C131" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D131" t="s">
         <v>529</v>
@@ -6443,13 +6437,13 @@
         <v>421</v>
       </c>
       <c r="G131" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H131" t="s">
         <v>419</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -6461,25 +6455,25 @@
         <v>highway-mml_path-line-(mmlways-fin-mml_topo)</v>
       </c>
       <c r="C132" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D132" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E132" t="s">
         <v>422</v>
       </c>
       <c r="F132" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G132" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H132" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -6491,25 +6485,25 @@
         <v>highway-path-line_badvis_farzoom-(def-all-osm)</v>
       </c>
       <c r="C133" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D133" t="s">
         <v>493</v>
       </c>
       <c r="E133" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F133" t="s">
         <v>448</v>
       </c>
       <c r="G133" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H133" t="s">
         <v>419</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -6521,25 +6515,25 @@
         <v>highway-path-line_goodvis_farzoom-(def-all-osm)</v>
       </c>
       <c r="C134" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D134" t="s">
         <v>493</v>
       </c>
       <c r="E134" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F134" t="s">
         <v>448</v>
       </c>
       <c r="G134" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H134" t="s">
         <v>419</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -6551,25 +6545,25 @@
         <v>highway-path-line_badvis-(def-all-osm)</v>
       </c>
       <c r="C135" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D135" t="s">
         <v>493</v>
       </c>
       <c r="E135" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F135" t="s">
         <v>448</v>
       </c>
       <c r="G135" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H135" t="s">
         <v>419</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -6581,19 +6575,19 @@
         <v>highway-path-line_badvis-(def-all-osm-hc)</v>
       </c>
       <c r="C136" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D136" t="s">
         <v>493</v>
       </c>
       <c r="E136" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F136" t="s">
         <v>448</v>
       </c>
       <c r="G136" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H136" t="s">
         <v>419</v>
@@ -6602,7 +6596,7 @@
         <v>430</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -6614,25 +6608,25 @@
         <v>highway-path-line_badvis-(gr-all-osm)</v>
       </c>
       <c r="C137" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D137" t="s">
         <v>493</v>
       </c>
       <c r="E137" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F137" t="s">
         <v>421</v>
       </c>
       <c r="G137" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H137" t="s">
         <v>419</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -6644,28 +6638,28 @@
         <v>highway-path-line_goodvis_narrow-(def-all-osm)</v>
       </c>
       <c r="C138" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D138" t="s">
         <v>493</v>
       </c>
       <c r="E138" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F138" t="s">
         <v>448</v>
       </c>
       <c r="G138" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H138" t="s">
         <v>419</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K138" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6677,28 +6671,28 @@
         <v>highway-path-line_goodvis_medium_or_unknown-(def-all-osm)</v>
       </c>
       <c r="C139" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D139" t="s">
         <v>493</v>
       </c>
       <c r="E139" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F139" t="s">
         <v>448</v>
       </c>
       <c r="G139" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H139" t="s">
         <v>419</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K139" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6710,28 +6704,28 @@
         <v>highway-path-line_goodvis_wide-(def-all-osm)</v>
       </c>
       <c r="C140" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D140" t="s">
         <v>493</v>
       </c>
       <c r="E140" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F140" t="s">
         <v>448</v>
       </c>
       <c r="G140" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H140" t="s">
         <v>419</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K140" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6743,19 +6737,19 @@
         <v>highway-path-line_goodvis_allwidths-(def-all-osm-hc)</v>
       </c>
       <c r="C141" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D141" t="s">
         <v>493</v>
       </c>
       <c r="E141" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F141" t="s">
         <v>448</v>
       </c>
       <c r="G141" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H141" t="s">
         <v>419</v>
@@ -6764,10 +6758,10 @@
         <v>430</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K141" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6779,25 +6773,25 @@
         <v>highway-path-line_goodvis_allwidths-(gr-all-osm)</v>
       </c>
       <c r="C142" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D142" t="s">
         <v>493</v>
       </c>
       <c r="E142" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F142" t="s">
         <v>421</v>
       </c>
       <c r="G142" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H142" t="s">
         <v>419</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6809,25 +6803,25 @@
         <v>highway-path-line_allvis_allwidths-(wnt-all-osm)</v>
       </c>
       <c r="C143" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D143" t="s">
         <v>493</v>
       </c>
       <c r="E143" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F143" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G143" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H143" t="s">
         <v>419</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6839,22 +6833,22 @@
         <v>highway-mml_track-(mmlways-fin-mml_topo)</v>
       </c>
       <c r="C144" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D144" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F144" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G144" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H144" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -6866,25 +6860,25 @@
         <v>highway-track-line_goodvis-(def-all-osm)</v>
       </c>
       <c r="C145" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D145" t="s">
         <v>432</v>
       </c>
       <c r="E145" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F145" t="s">
         <v>448</v>
       </c>
       <c r="G145" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H145" t="s">
         <v>419</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -6896,25 +6890,25 @@
         <v>highway-track-line_badvis-(def-all-osm)</v>
       </c>
       <c r="C146" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D146" t="s">
         <v>432</v>
       </c>
       <c r="E146" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F146" t="s">
         <v>448</v>
       </c>
       <c r="G146" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H146" t="s">
         <v>419</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -6926,19 +6920,19 @@
         <v>highway-track-line_goodvis-(def-all-osm-hc)</v>
       </c>
       <c r="C147" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D147" t="s">
         <v>432</v>
       </c>
       <c r="E147" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F147" t="s">
         <v>448</v>
       </c>
       <c r="G147" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H147" t="s">
         <v>419</v>
@@ -6947,7 +6941,7 @@
         <v>430</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -6959,19 +6953,19 @@
         <v>highway-track-line_badvis-(def-all-osm-hc)</v>
       </c>
       <c r="C148" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D148" t="s">
         <v>432</v>
       </c>
       <c r="E148" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F148" t="s">
         <v>448</v>
       </c>
       <c r="G148" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H148" t="s">
         <v>419</v>
@@ -6980,7 +6974,7 @@
         <v>430</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -6992,25 +6986,25 @@
         <v>highway-track-line_goodvis-(gr-all-osm)</v>
       </c>
       <c r="C149" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D149" t="s">
         <v>432</v>
       </c>
       <c r="E149" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F149" t="s">
         <v>421</v>
       </c>
       <c r="G149" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H149" t="s">
         <v>419</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -7022,25 +7016,25 @@
         <v>highway-track-line_badvis-(gr-all-osm)</v>
       </c>
       <c r="C150" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D150" t="s">
         <v>432</v>
       </c>
       <c r="E150" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F150" t="s">
         <v>421</v>
       </c>
       <c r="G150" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H150" t="s">
         <v>419</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -7052,7 +7046,7 @@
         <v>highway-footway-line-(def-all-osm)</v>
       </c>
       <c r="C151" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D151" t="s">
         <v>531</v>
@@ -7064,13 +7058,13 @@
         <v>448</v>
       </c>
       <c r="G151" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H151" t="s">
         <v>419</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -7082,7 +7076,7 @@
         <v>highway-footway-line-(def-all-osm-hc)</v>
       </c>
       <c r="C152" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D152" t="s">
         <v>531</v>
@@ -7094,7 +7088,7 @@
         <v>448</v>
       </c>
       <c r="G152" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H152" t="s">
         <v>419</v>
@@ -7103,7 +7097,7 @@
         <v>430</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -7115,25 +7109,25 @@
         <v>sidewalk-footway-line_left-(def-all-osm)</v>
       </c>
       <c r="C153" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D153" t="s">
         <v>531</v>
       </c>
       <c r="E153" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F153" t="s">
         <v>448</v>
       </c>
       <c r="G153" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H153" t="s">
         <v>419</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -7145,19 +7139,19 @@
         <v>sidewalk-footway-line_left-(def-all-osm-hc)</v>
       </c>
       <c r="C154" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D154" t="s">
         <v>531</v>
       </c>
       <c r="E154" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F154" t="s">
         <v>448</v>
       </c>
       <c r="G154" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H154" t="s">
         <v>419</v>
@@ -7166,7 +7160,7 @@
         <v>430</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -7178,25 +7172,25 @@
         <v>sidewalk-footway-line_right-(def-all-osm)</v>
       </c>
       <c r="C155" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D155" t="s">
         <v>531</v>
       </c>
       <c r="E155" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F155" t="s">
         <v>448</v>
       </c>
       <c r="G155" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H155" t="s">
         <v>419</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -7208,19 +7202,19 @@
         <v>sidewalk-footway-line_right-(def-all-osm-hc)</v>
       </c>
       <c r="C156" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D156" t="s">
         <v>531</v>
       </c>
       <c r="E156" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F156" t="s">
         <v>448</v>
       </c>
       <c r="G156" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H156" t="s">
         <v>419</v>
@@ -7229,7 +7223,7 @@
         <v>430</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -7241,7 +7235,7 @@
         <v>highway-steps-(def-all-osm)</v>
       </c>
       <c r="C157" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D157" t="s">
         <v>480</v>
@@ -7250,13 +7244,13 @@
         <v>448</v>
       </c>
       <c r="G157" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H157" t="s">
         <v>419</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -7268,7 +7262,7 @@
         <v>highway-steps-(def-all-osm-hc)</v>
       </c>
       <c r="C158" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D158" t="s">
         <v>480</v>
@@ -7277,7 +7271,7 @@
         <v>448</v>
       </c>
       <c r="G158" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H158" t="s">
         <v>419</v>
@@ -7286,7 +7280,7 @@
         <v>430</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -7298,10 +7292,10 @@
         <v>highway-motorway_link-case-(def-all-osm)</v>
       </c>
       <c r="C159" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D159" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E159" t="s">
         <v>451</v>
@@ -7310,13 +7304,13 @@
         <v>448</v>
       </c>
       <c r="G159" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H159" t="s">
         <v>419</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -7328,10 +7322,10 @@
         <v>highway-motorway_link-case-(def-all-osm-hc)</v>
       </c>
       <c r="C160" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D160" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E160" t="s">
         <v>451</v>
@@ -7340,7 +7334,7 @@
         <v>448</v>
       </c>
       <c r="G160" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H160" t="s">
         <v>419</v>
@@ -7349,7 +7343,7 @@
         <v>430</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -7361,10 +7355,10 @@
         <v>highway-trunk_primary_secondary_tertiary_link-case-(def-all-osm)</v>
       </c>
       <c r="C161" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D161" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E161" t="s">
         <v>451</v>
@@ -7373,13 +7367,13 @@
         <v>448</v>
       </c>
       <c r="G161" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H161" t="s">
         <v>419</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -7391,10 +7385,10 @@
         <v>highway-trunk_primary_secondary_tertiary_link-case-(def-all-osm-hc)</v>
       </c>
       <c r="C162" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D162" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E162" t="s">
         <v>451</v>
@@ -7403,7 +7397,7 @@
         <v>448</v>
       </c>
       <c r="G162" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H162" t="s">
         <v>419</v>
@@ -7412,7 +7406,7 @@
         <v>430</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -7424,10 +7418,10 @@
         <v>highway-trunk_primary_secondary_tertiary_link-case-(gr-all-osm)</v>
       </c>
       <c r="C163" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D163" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E163" t="s">
         <v>451</v>
@@ -7436,13 +7430,13 @@
         <v>421</v>
       </c>
       <c r="G163" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H163" t="s">
         <v>419</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -7454,7 +7448,7 @@
         <v>highway-minor-case-(def-all-osm)</v>
       </c>
       <c r="C164" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D164" t="s">
         <v>489</v>
@@ -7466,13 +7460,13 @@
         <v>448</v>
       </c>
       <c r="G164" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H164" t="s">
         <v>419</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -7484,7 +7478,7 @@
         <v>highway-minor-case-(def-all-osm-hc)</v>
       </c>
       <c r="C165" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D165" t="s">
         <v>489</v>
@@ -7496,7 +7490,7 @@
         <v>448</v>
       </c>
       <c r="G165" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H165" t="s">
         <v>419</v>
@@ -7505,19 +7499,19 @@
         <v>430</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>
         <v>highway-minor-case-(wnt-all-osm)</v>
       </c>
       <c r="C166" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D166" t="s">
         <v>489</v>
@@ -7526,16 +7520,16 @@
         <v>451</v>
       </c>
       <c r="F166" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G166" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H166" t="s">
         <v>419</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -7547,28 +7541,28 @@
         <v>highway-minor-case_smooth-(gr-all-osm)</v>
       </c>
       <c r="C167" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D167" t="s">
         <v>489</v>
       </c>
       <c r="E167" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F167" t="s">
         <v>421</v>
       </c>
       <c r="G167" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H167" t="s">
         <v>419</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K167" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7580,28 +7574,28 @@
         <v>highway-minor-case_medium-(gr-all-osm)</v>
       </c>
       <c r="C168" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D168" t="s">
         <v>489</v>
       </c>
       <c r="E168" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F168" t="s">
         <v>421</v>
       </c>
       <c r="G168" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H168" t="s">
         <v>419</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K168" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7613,28 +7607,28 @@
         <v>highway-minor-case_rough-(gr-all-osm)</v>
       </c>
       <c r="C169" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D169" t="s">
         <v>489</v>
       </c>
       <c r="E169" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F169" t="s">
         <v>421</v>
       </c>
       <c r="G169" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H169" t="s">
         <v>419</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K169" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7646,25 +7640,25 @@
         <v>highway-mml_service_or_minor-line-(mmlways-fin-mml_topo)</v>
       </c>
       <c r="C170" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D170" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E170" t="s">
         <v>422</v>
       </c>
       <c r="F170" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G170" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H170" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7676,7 +7670,7 @@
         <v>highway-service-case-(def-all-osm)</v>
       </c>
       <c r="C171" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D171" t="s">
         <v>526</v>
@@ -7688,13 +7682,13 @@
         <v>448</v>
       </c>
       <c r="G171" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H171" t="s">
         <v>419</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7706,7 +7700,7 @@
         <v>highway-service-case-(def-all-osm-hc)</v>
       </c>
       <c r="C172" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D172" t="s">
         <v>526</v>
@@ -7718,7 +7712,7 @@
         <v>448</v>
       </c>
       <c r="G172" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H172" t="s">
         <v>419</v>
@@ -7727,19 +7721,19 @@
         <v>430</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="2"/>
         <v>highway-service-case-(wnt-all-osm)</v>
       </c>
       <c r="C173" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D173" t="s">
         <v>526</v>
@@ -7748,16 +7742,16 @@
         <v>451</v>
       </c>
       <c r="F173" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G173" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H173" t="s">
         <v>419</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -7769,28 +7763,28 @@
         <v>highway-service-case_smooth-(gr-all-osm)</v>
       </c>
       <c r="C174" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D174" t="s">
         <v>526</v>
       </c>
       <c r="E174" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F174" t="s">
         <v>421</v>
       </c>
       <c r="G174" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H174" t="s">
         <v>419</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K174" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7802,28 +7796,28 @@
         <v>highway-service-case_medium-(gr-all-osm)</v>
       </c>
       <c r="C175" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D175" t="s">
         <v>526</v>
       </c>
       <c r="E175" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F175" t="s">
         <v>421</v>
       </c>
       <c r="G175" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H175" t="s">
         <v>419</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K175" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -7835,28 +7829,28 @@
         <v>highway-service-case_rough-(gr-all-osm)</v>
       </c>
       <c r="C176" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D176" t="s">
         <v>526</v>
       </c>
       <c r="E176" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F176" t="s">
         <v>421</v>
       </c>
       <c r="G176" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H176" t="s">
         <v>419</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K176" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7868,7 +7862,7 @@
         <v>highway-driveway-case-(def-all-osm)</v>
       </c>
       <c r="C177" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D177" t="s">
         <v>532</v>
@@ -7880,13 +7874,13 @@
         <v>448</v>
       </c>
       <c r="G177" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H177" t="s">
         <v>419</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7898,7 +7892,7 @@
         <v>highway-driveway-case-(def-all-osm-hc)</v>
       </c>
       <c r="C178" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D178" t="s">
         <v>532</v>
@@ -7910,7 +7904,7 @@
         <v>448</v>
       </c>
       <c r="G178" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H178" t="s">
         <v>419</v>
@@ -7919,19 +7913,19 @@
         <v>430</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="2"/>
         <v>highway-driveway-case-(wnt-all-osm)</v>
       </c>
       <c r="C179" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D179" t="s">
         <v>532</v>
@@ -7940,16 +7934,16 @@
         <v>451</v>
       </c>
       <c r="F179" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G179" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H179" t="s">
         <v>419</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -7961,28 +7955,28 @@
         <v>highway-driveway-case_smooth-(gr-all-osm)</v>
       </c>
       <c r="C180" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D180" t="s">
         <v>532</v>
       </c>
       <c r="E180" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F180" t="s">
         <v>421</v>
       </c>
       <c r="G180" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H180" t="s">
         <v>419</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K180" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -7994,28 +7988,28 @@
         <v>highway-driveway-case_medium-(gr-all-osm)</v>
       </c>
       <c r="C181" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D181" t="s">
         <v>532</v>
       </c>
       <c r="E181" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F181" t="s">
         <v>421</v>
       </c>
       <c r="G181" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H181" t="s">
         <v>419</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K181" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -8027,28 +8021,28 @@
         <v>highway-driveway-case_rough-(gr-all-osm)</v>
       </c>
       <c r="C182" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D182" t="s">
         <v>532</v>
       </c>
       <c r="E182" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F182" t="s">
         <v>421</v>
       </c>
       <c r="G182" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H182" t="s">
         <v>419</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K182" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -8060,7 +8054,7 @@
         <v>highway-raceway-case-(def-all-osm)</v>
       </c>
       <c r="C183" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D183" t="s">
         <v>533</v>
@@ -8072,13 +8066,13 @@
         <v>448</v>
       </c>
       <c r="G183" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H183" t="s">
         <v>419</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -8090,7 +8084,7 @@
         <v>highway-raceway-case-(def-all-osm-hc)</v>
       </c>
       <c r="C184" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D184" t="s">
         <v>533</v>
@@ -8102,7 +8096,7 @@
         <v>448</v>
       </c>
       <c r="G184" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H184" t="s">
         <v>419</v>
@@ -8111,7 +8105,7 @@
         <v>430</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -8123,7 +8117,7 @@
         <v>highway-parking_aisle-(def-all-osm)</v>
       </c>
       <c r="C185" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D185" t="s">
         <v>534</v>
@@ -8132,13 +8126,13 @@
         <v>448</v>
       </c>
       <c r="G185" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H185" t="s">
         <v>419</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -8150,10 +8144,10 @@
         <v>highway-secondary_tertiary-case-(def-all-osm)</v>
       </c>
       <c r="C186" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D186" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E186" t="s">
         <v>451</v>
@@ -8162,13 +8156,13 @@
         <v>448</v>
       </c>
       <c r="G186" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H186" t="s">
         <v>419</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -8180,10 +8174,10 @@
         <v>highway-secondary_tertiary-case-(def-all-osm-hc)</v>
       </c>
       <c r="C187" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D187" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E187" t="s">
         <v>451</v>
@@ -8192,7 +8186,7 @@
         <v>448</v>
       </c>
       <c r="G187" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H187" t="s">
         <v>419</v>
@@ -8201,67 +8195,67 @@
         <v>430</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="2"/>
         <v>highway-tertiary-case-(wnt-all-osm)</v>
       </c>
       <c r="C188" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D188" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E188" t="s">
         <v>451</v>
       </c>
       <c r="F188" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G188" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H188" t="s">
         <v>419</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="2"/>
         <v>highway-secondary-case-(wnt-all-osm)</v>
       </c>
       <c r="C189" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D189" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E189" t="s">
         <v>451</v>
       </c>
       <c r="F189" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G189" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H189" t="s">
         <v>419</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -8273,10 +8267,10 @@
         <v>highway-tertiary-case-(gr-all-osm)</v>
       </c>
       <c r="C190" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D190" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E190" t="s">
         <v>451</v>
@@ -8285,13 +8279,13 @@
         <v>421</v>
       </c>
       <c r="G190" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H190" t="s">
         <v>419</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -8303,10 +8297,10 @@
         <v>highway-secondary-case-(gr-all-osm)</v>
       </c>
       <c r="C191" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D191" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E191" t="s">
         <v>451</v>
@@ -8315,13 +8309,13 @@
         <v>421</v>
       </c>
       <c r="G191" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H191" t="s">
         <v>419</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -8333,7 +8327,7 @@
         <v>highway-primary-case-(def-all-osm)</v>
       </c>
       <c r="C192" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D192" t="s">
         <v>535</v>
@@ -8345,13 +8339,13 @@
         <v>448</v>
       </c>
       <c r="G192" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H192" t="s">
         <v>419</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -8363,7 +8357,7 @@
         <v>highway-primary-case-(def-all-osm-hc)</v>
       </c>
       <c r="C193" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D193" t="s">
         <v>535</v>
@@ -8375,7 +8369,7 @@
         <v>448</v>
       </c>
       <c r="G193" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H193" t="s">
         <v>419</v>
@@ -8384,19 +8378,19 @@
         <v>430</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="2"/>
         <v>highway-primary-case-(wnt-all-osm)</v>
       </c>
       <c r="C194" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D194" t="s">
         <v>535</v>
@@ -8405,16 +8399,16 @@
         <v>451</v>
       </c>
       <c r="F194" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G194" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H194" t="s">
         <v>419</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -8426,7 +8420,7 @@
         <v>highway-primary-case-(gr-all-osm)</v>
       </c>
       <c r="C195" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D195" t="s">
         <v>535</v>
@@ -8438,13 +8432,13 @@
         <v>421</v>
       </c>
       <c r="G195" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H195" t="s">
         <v>419</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -8456,7 +8450,7 @@
         <v>highway-trunk-case-(def-all-osm)</v>
       </c>
       <c r="C196" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D196" t="s">
         <v>536</v>
@@ -8468,13 +8462,13 @@
         <v>448</v>
       </c>
       <c r="G196" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H196" t="s">
         <v>419</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -8486,7 +8480,7 @@
         <v>highway-trunk-case-(def-all-osm-hc)</v>
       </c>
       <c r="C197" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D197" t="s">
         <v>536</v>
@@ -8498,7 +8492,7 @@
         <v>448</v>
       </c>
       <c r="G197" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H197" t="s">
         <v>419</v>
@@ -8507,19 +8501,19 @@
         <v>430</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="3"/>
         <v>highway-trunk-case-(def-all-osm)</v>
       </c>
       <c r="C198" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D198" t="s">
         <v>536</v>
@@ -8531,13 +8525,13 @@
         <v>448</v>
       </c>
       <c r="G198" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H198" t="s">
         <v>419</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -8549,7 +8543,7 @@
         <v>highway-trunk-case-(wnt-all-osm)</v>
       </c>
       <c r="C199" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D199" t="s">
         <v>536</v>
@@ -8558,16 +8552,16 @@
         <v>451</v>
       </c>
       <c r="F199" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G199" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H199" t="s">
         <v>419</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -8579,7 +8573,7 @@
         <v>highway-motorway-case-(def-all-osm)</v>
       </c>
       <c r="C200" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D200" t="s">
         <v>528</v>
@@ -8591,13 +8585,13 @@
         <v>448</v>
       </c>
       <c r="G200" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H200" t="s">
         <v>419</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -8609,7 +8603,7 @@
         <v>highway-motorway-case-(def-all-osm-hc)</v>
       </c>
       <c r="C201" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D201" t="s">
         <v>528</v>
@@ -8621,7 +8615,7 @@
         <v>448</v>
       </c>
       <c r="G201" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H201" t="s">
         <v>419</v>
@@ -8630,19 +8624,19 @@
         <v>430</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="3"/>
         <v>highway-motorway-case-(wnt-all-osm)</v>
       </c>
       <c r="C202" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D202" t="s">
         <v>528</v>
@@ -8651,16 +8645,16 @@
         <v>451</v>
       </c>
       <c r="F202" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G202" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H202" t="s">
         <v>419</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -8672,10 +8666,10 @@
         <v>highway-motorway_link-line-(def-all-osm)</v>
       </c>
       <c r="C203" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D203" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E203" t="s">
         <v>422</v>
@@ -8684,13 +8678,13 @@
         <v>448</v>
       </c>
       <c r="G203" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H203" t="s">
         <v>419</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -8702,10 +8696,10 @@
         <v>highway-motorway_link-line-(def-all-osm-hc)</v>
       </c>
       <c r="C204" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D204" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E204" t="s">
         <v>422</v>
@@ -8714,7 +8708,7 @@
         <v>448</v>
       </c>
       <c r="G204" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H204" t="s">
         <v>419</v>
@@ -8723,7 +8717,7 @@
         <v>430</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -8735,10 +8729,10 @@
         <v>highway-trunk_primary_secondary_tertiary_link-line-(def-all-osm)</v>
       </c>
       <c r="C205" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D205" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E205" t="s">
         <v>422</v>
@@ -8747,13 +8741,13 @@
         <v>448</v>
       </c>
       <c r="G205" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H205" t="s">
         <v>419</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -8765,10 +8759,10 @@
         <v>highway-trunk_primary_secondary_tertiary_link-line-(def-all-osm-hc)</v>
       </c>
       <c r="C206" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D206" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E206" t="s">
         <v>422</v>
@@ -8777,7 +8771,7 @@
         <v>448</v>
       </c>
       <c r="G206" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H206" t="s">
         <v>419</v>
@@ -8786,7 +8780,7 @@
         <v>430</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -8798,10 +8792,10 @@
         <v>highway-trunk_primary_secondary_tertiary_link-line-(gr-all-osm)</v>
       </c>
       <c r="C207" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D207" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E207" t="s">
         <v>422</v>
@@ -8810,13 +8804,13 @@
         <v>421</v>
       </c>
       <c r="G207" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H207" t="s">
         <v>419</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -8828,7 +8822,7 @@
         <v>highway-driveway-line-(def-all-osm)</v>
       </c>
       <c r="C208" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D208" t="s">
         <v>532</v>
@@ -8840,25 +8834,25 @@
         <v>448</v>
       </c>
       <c r="G208" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H208" t="s">
         <v>419</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="3"/>
         <v>highway-driveway-line-(wnt-all-osm)</v>
       </c>
       <c r="C209" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D209" t="s">
         <v>532</v>
@@ -8867,16 +8861,16 @@
         <v>422</v>
       </c>
       <c r="F209" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G209" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H209" t="s">
         <v>419</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -8888,7 +8882,7 @@
         <v>highway-driveway-line-(def-all-osm-hc)</v>
       </c>
       <c r="C210" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D210" t="s">
         <v>532</v>
@@ -8900,7 +8894,7 @@
         <v>448</v>
       </c>
       <c r="G210" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H210" t="s">
         <v>419</v>
@@ -8909,7 +8903,7 @@
         <v>430</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -8921,7 +8915,7 @@
         <v>highway-driveway-line-(gr-all-osm)</v>
       </c>
       <c r="C211" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D211" t="s">
         <v>532</v>
@@ -8933,13 +8927,13 @@
         <v>421</v>
       </c>
       <c r="G211" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H211" t="s">
         <v>419</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -8951,7 +8945,7 @@
         <v>highway-service-line-(def-all-osm)</v>
       </c>
       <c r="C212" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D212" t="s">
         <v>526</v>
@@ -8963,25 +8957,25 @@
         <v>448</v>
       </c>
       <c r="G212" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H212" t="s">
         <v>419</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="3"/>
         <v>highway-service-line-(wnt-all-osm)</v>
       </c>
       <c r="C213" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D213" t="s">
         <v>526</v>
@@ -8990,16 +8984,16 @@
         <v>422</v>
       </c>
       <c r="F213" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G213" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H213" t="s">
         <v>419</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -9011,7 +9005,7 @@
         <v>highway-service-line-(gr-all-osm)</v>
       </c>
       <c r="C214" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D214" t="s">
         <v>526</v>
@@ -9023,13 +9017,13 @@
         <v>421</v>
       </c>
       <c r="G214" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H214" t="s">
         <v>419</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -9041,7 +9035,7 @@
         <v>highway-minor-line-(def-all-osm)</v>
       </c>
       <c r="C215" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D215" t="s">
         <v>489</v>
@@ -9053,25 +9047,25 @@
         <v>448</v>
       </c>
       <c r="G215" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H215" t="s">
         <v>419</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="3"/>
         <v>highway-minor-line-(wnt-all-osm)</v>
       </c>
       <c r="C216" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D216" t="s">
         <v>489</v>
@@ -9080,16 +9074,16 @@
         <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G216" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H216" t="s">
         <v>419</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -9101,7 +9095,7 @@
         <v>highway-minor-line-(gr-all-osm)</v>
       </c>
       <c r="C217" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D217" t="s">
         <v>489</v>
@@ -9113,13 +9107,13 @@
         <v>421</v>
       </c>
       <c r="G217" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H217" t="s">
         <v>419</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -9131,7 +9125,7 @@
         <v>highway-raceway-line-(def-all-osm)</v>
       </c>
       <c r="C218" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D218" t="s">
         <v>533</v>
@@ -9143,13 +9137,13 @@
         <v>448</v>
       </c>
       <c r="G218" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H218" t="s">
         <v>419</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -9161,10 +9155,10 @@
         <v>highway-secondary_tertiary-line-(def-all-osm)</v>
       </c>
       <c r="C219" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D219" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E219" t="s">
         <v>422</v>
@@ -9173,13 +9167,13 @@
         <v>448</v>
       </c>
       <c r="G219" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H219" t="s">
         <v>419</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -9191,10 +9185,10 @@
         <v>highway-secondary_tertiary-line-(def-all-osm-hc)</v>
       </c>
       <c r="C220" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D220" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E220" t="s">
         <v>422</v>
@@ -9203,7 +9197,7 @@
         <v>448</v>
       </c>
       <c r="G220" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H220" t="s">
         <v>419</v>
@@ -9212,7 +9206,7 @@
         <v>430</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -9224,10 +9218,10 @@
         <v>highway-tertiary-line-(gr-all-osm)</v>
       </c>
       <c r="C221" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D221" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E221" t="s">
         <v>422</v>
@@ -9236,13 +9230,13 @@
         <v>421</v>
       </c>
       <c r="G221" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H221" t="s">
         <v>419</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -9254,10 +9248,10 @@
         <v>highway-secondary-line-(gr-all-osm)</v>
       </c>
       <c r="C222" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D222" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E222" t="s">
         <v>422</v>
@@ -9266,13 +9260,13 @@
         <v>421</v>
       </c>
       <c r="G222" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H222" t="s">
         <v>419</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -9284,7 +9278,7 @@
         <v>highway-primary-line-(def-all-osm)</v>
       </c>
       <c r="C223" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D223" t="s">
         <v>535</v>
@@ -9296,13 +9290,13 @@
         <v>448</v>
       </c>
       <c r="G223" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H223" t="s">
         <v>419</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -9314,7 +9308,7 @@
         <v>highway-primary-line-(def-all-osm-hc)</v>
       </c>
       <c r="C224" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D224" t="s">
         <v>535</v>
@@ -9326,7 +9320,7 @@
         <v>448</v>
       </c>
       <c r="G224" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H224" t="s">
         <v>419</v>
@@ -9335,19 +9329,19 @@
         <v>430</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="3"/>
         <v>highway-primary-line-(wnt-all-osm)</v>
       </c>
       <c r="C225" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D225" t="s">
         <v>535</v>
@@ -9356,16 +9350,16 @@
         <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G225" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H225" t="s">
         <v>419</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -9377,7 +9371,7 @@
         <v>highway-primary-line-(gr-all-osm)</v>
       </c>
       <c r="C226" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D226" t="s">
         <v>535</v>
@@ -9389,13 +9383,13 @@
         <v>421</v>
       </c>
       <c r="G226" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H226" t="s">
         <v>419</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -9407,7 +9401,7 @@
         <v>highway-trunk-line-(def-all-osm)</v>
       </c>
       <c r="C227" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D227" t="s">
         <v>536</v>
@@ -9419,13 +9413,13 @@
         <v>448</v>
       </c>
       <c r="G227" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H227" t="s">
         <v>419</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -9437,7 +9431,7 @@
         <v>highway-trunk-line-(def-all-osm-hc)</v>
       </c>
       <c r="C228" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D228" t="s">
         <v>536</v>
@@ -9449,7 +9443,7 @@
         <v>448</v>
       </c>
       <c r="G228" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H228" t="s">
         <v>419</v>
@@ -9458,19 +9452,19 @@
         <v>430</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="3"/>
         <v>highway-trunk-line-(wnt-all-osm)</v>
       </c>
       <c r="C229" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D229" t="s">
         <v>536</v>
@@ -9479,16 +9473,16 @@
         <v>422</v>
       </c>
       <c r="F229" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G229" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H229" t="s">
         <v>419</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -9500,7 +9494,7 @@
         <v>highway-trunk-line-(gr-all-osm)</v>
       </c>
       <c r="C230" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D230" t="s">
         <v>536</v>
@@ -9512,13 +9506,13 @@
         <v>421</v>
       </c>
       <c r="G230" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H230" t="s">
         <v>419</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -9530,7 +9524,7 @@
         <v>highway-motorway-line-(def-all-osm)</v>
       </c>
       <c r="C231" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D231" t="s">
         <v>528</v>
@@ -9542,13 +9536,13 @@
         <v>448</v>
       </c>
       <c r="G231" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H231" t="s">
         <v>419</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -9560,7 +9554,7 @@
         <v>highway-motorway-line-(def-all-osm-hc)</v>
       </c>
       <c r="C232" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D232" t="s">
         <v>528</v>
@@ -9572,7 +9566,7 @@
         <v>448</v>
       </c>
       <c r="G232" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H232" t="s">
         <v>419</v>
@@ -9581,19 +9575,19 @@
         <v>430</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="3"/>
         <v>highway-motorway-line-(wnt-all-osm)</v>
       </c>
       <c r="C233" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D233" t="s">
         <v>528</v>
@@ -9602,16 +9596,16 @@
         <v>422</v>
       </c>
       <c r="F233" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G233" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H233" t="s">
         <v>419</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -9623,25 +9617,25 @@
         <v>sidewalk-cycleway-line_left_paved-(def-all-osm)</v>
       </c>
       <c r="C234" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D234" t="s">
         <v>529</v>
       </c>
       <c r="E234" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F234" t="s">
         <v>448</v>
       </c>
       <c r="G234" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H234" t="s">
         <v>419</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -9653,19 +9647,19 @@
         <v>sidewalk-cycleway-line_left_paved-(def-all-osm-hc)</v>
       </c>
       <c r="C235" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D235" t="s">
         <v>529</v>
       </c>
       <c r="E235" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F235" t="s">
         <v>448</v>
       </c>
       <c r="G235" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H235" t="s">
         <v>419</v>
@@ -9674,7 +9668,7 @@
         <v>430</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -9686,25 +9680,25 @@
         <v>sidewalk-cycleway-line_right_paved-(def-all-osm)</v>
       </c>
       <c r="C236" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D236" t="s">
         <v>529</v>
       </c>
       <c r="E236" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F236" t="s">
         <v>448</v>
       </c>
       <c r="G236" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H236" t="s">
         <v>419</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -9716,19 +9710,19 @@
         <v>sidewalk-cycleway-line_right_paved-(def-all-osm-hc)</v>
       </c>
       <c r="C237" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D237" t="s">
         <v>529</v>
       </c>
       <c r="E237" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F237" t="s">
         <v>448</v>
       </c>
       <c r="G237" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H237" t="s">
         <v>419</v>
@@ -9737,7 +9731,7 @@
         <v>430</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -9749,25 +9743,25 @@
         <v>highway-cycleway-line_paved-(def-all-osm)</v>
       </c>
       <c r="C238" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D238" t="s">
         <v>529</v>
       </c>
       <c r="E238" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F238" t="s">
         <v>448</v>
       </c>
       <c r="G238" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H238" t="s">
         <v>419</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -9779,19 +9773,19 @@
         <v>highway-cycleway-line_paved-(def-all-osm-hc)</v>
       </c>
       <c r="C239" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D239" t="s">
         <v>529</v>
       </c>
       <c r="E239" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F239" t="s">
         <v>448</v>
       </c>
       <c r="G239" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H239" t="s">
         <v>419</v>
@@ -9800,7 +9794,7 @@
         <v>430</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -9812,25 +9806,25 @@
         <v>highway-cycleway-line_paved-(gr-all-osm)</v>
       </c>
       <c r="C240" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D240" t="s">
         <v>529</v>
       </c>
       <c r="E240" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F240" t="s">
         <v>421</v>
       </c>
       <c r="G240" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H240" t="s">
         <v>419</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -9842,25 +9836,25 @@
         <v>highway-cycleway-line_unpaved-(def-all-osm)</v>
       </c>
       <c r="C241" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D241" t="s">
         <v>529</v>
       </c>
       <c r="E241" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F241" t="s">
         <v>448</v>
       </c>
       <c r="G241" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H241" t="s">
         <v>419</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -9872,19 +9866,19 @@
         <v>highway-cycleway-line_unpaved-(def-all-osm-hc)</v>
       </c>
       <c r="C242" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D242" t="s">
         <v>529</v>
       </c>
       <c r="E242" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F242" t="s">
         <v>448</v>
       </c>
       <c r="G242" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H242" t="s">
         <v>419</v>
@@ -9893,7 +9887,7 @@
         <v>430</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -9905,25 +9899,25 @@
         <v>highway-cycleway-line_unpaved-(gr-all-osm)</v>
       </c>
       <c r="C243" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D243" t="s">
         <v>529</v>
       </c>
       <c r="E243" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F243" t="s">
         <v>421</v>
       </c>
       <c r="G243" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H243" t="s">
         <v>419</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -9935,25 +9929,25 @@
         <v>highway-cycleway-line_unknown-(def-all-osm)</v>
       </c>
       <c r="C244" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D244" t="s">
         <v>529</v>
       </c>
       <c r="E244" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F244" t="s">
         <v>448</v>
       </c>
       <c r="G244" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H244" t="s">
         <v>419</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -9965,19 +9959,19 @@
         <v>highway-cycleway-line_unknown-(def-all-osm-hc)</v>
       </c>
       <c r="C245" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D245" t="s">
         <v>529</v>
       </c>
       <c r="E245" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F245" t="s">
         <v>448</v>
       </c>
       <c r="G245" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H245" t="s">
         <v>419</v>
@@ -9986,7 +9980,7 @@
         <v>430</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -9998,25 +9992,25 @@
         <v>highway-cycleway-line_unknown-(gr-all-osm)</v>
       </c>
       <c r="C246" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D246" t="s">
         <v>529</v>
       </c>
       <c r="E246" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F246" t="s">
         <v>421</v>
       </c>
       <c r="G246" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H246" t="s">
         <v>419</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -10028,19 +10022,19 @@
         <v>access-bicycle_winter-no-(def-all-osm)</v>
       </c>
       <c r="C247" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D247" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E247" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F247" t="s">
         <v>448</v>
       </c>
       <c r="G247" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H247" t="s">
         <v>419</v>
@@ -10058,22 +10052,22 @@
         <v>510</v>
       </c>
       <c r="D248" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E248" t="s">
         <v>451</v>
       </c>
       <c r="F248" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G248" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H248" t="s">
         <v>419</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -10088,22 +10082,22 @@
         <v>510</v>
       </c>
       <c r="D249" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E249" t="s">
         <v>451</v>
       </c>
       <c r="F249" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G249" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H249" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -10118,22 +10112,22 @@
         <v>510</v>
       </c>
       <c r="D250" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E250" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F250" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G250" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H250" t="s">
         <v>419</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -10148,22 +10142,22 @@
         <v>510</v>
       </c>
       <c r="D251" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E251" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F251" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G251" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H251" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -10178,22 +10172,22 @@
         <v>510</v>
       </c>
       <c r="D252" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E252" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F252" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G252" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H252" t="s">
         <v>419</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -10208,22 +10202,22 @@
         <v>510</v>
       </c>
       <c r="D253" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E253" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F253" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G253" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H253" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -10238,22 +10232,22 @@
         <v>510</v>
       </c>
       <c r="D254" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E254" t="s">
         <v>481</v>
       </c>
       <c r="F254" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G254" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H254" t="s">
         <v>419</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -10268,16 +10262,16 @@
         <v>510</v>
       </c>
       <c r="D255" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E255" t="s">
         <v>451</v>
       </c>
       <c r="F255" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G255" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H255" t="s">
         <v>419</v>
@@ -10295,16 +10289,16 @@
         <v>510</v>
       </c>
       <c r="D256" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E256" t="s">
         <v>422</v>
       </c>
       <c r="F256" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G256" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H256" t="s">
         <v>419</v>
@@ -10328,13 +10322,13 @@
         <v>448</v>
       </c>
       <c r="G257" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H257" t="s">
         <v>419</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -10355,7 +10349,7 @@
         <v>448</v>
       </c>
       <c r="G258" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H258" t="s">
         <v>419</v>
@@ -10364,7 +10358,7 @@
         <v>430</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -10385,13 +10379,13 @@
         <v>448</v>
       </c>
       <c r="G259" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H259" t="s">
         <v>419</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -10412,7 +10406,7 @@
         <v>448</v>
       </c>
       <c r="G260" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H260" t="s">
         <v>419</v>
@@ -10421,7 +10415,7 @@
         <v>430</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -10445,7 +10439,7 @@
         <v>448</v>
       </c>
       <c r="G261" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H261" t="s">
         <v>419</v>
@@ -10472,7 +10466,7 @@
         <v>448</v>
       </c>
       <c r="G262" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H262" t="s">
         <v>419</v>
@@ -10499,7 +10493,7 @@
         <v>448</v>
       </c>
       <c r="G263" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H263" t="s">
         <v>419</v>
@@ -10526,7 +10520,7 @@
         <v>448</v>
       </c>
       <c r="G264" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H264" t="s">
         <v>419</v>
@@ -10544,7 +10538,7 @@
         <v>461</v>
       </c>
       <c r="D265" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E265" t="s">
         <v>451</v>
@@ -10553,7 +10547,7 @@
         <v>448</v>
       </c>
       <c r="G265" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H265" t="s">
         <v>419</v>
@@ -10571,7 +10565,7 @@
         <v>461</v>
       </c>
       <c r="D266" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E266" t="s">
         <v>422</v>
@@ -10580,7 +10574,7 @@
         <v>448</v>
       </c>
       <c r="G266" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H266" t="s">
         <v>419</v>
@@ -10598,7 +10592,7 @@
         <v>513</v>
       </c>
       <c r="D267" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E267" t="s">
         <v>451</v>
@@ -10607,13 +10601,13 @@
         <v>448</v>
       </c>
       <c r="G267" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H267" t="s">
         <v>419</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -10628,7 +10622,7 @@
         <v>513</v>
       </c>
       <c r="D268" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E268" t="s">
         <v>451</v>
@@ -10637,7 +10631,7 @@
         <v>448</v>
       </c>
       <c r="G268" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H268" t="s">
         <v>419</v>
@@ -10646,7 +10640,7 @@
         <v>430</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -10661,7 +10655,7 @@
         <v>513</v>
       </c>
       <c r="D269" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E269" t="s">
         <v>451</v>
@@ -10670,13 +10664,13 @@
         <v>448</v>
       </c>
       <c r="G269" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H269" t="s">
         <v>419</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -10691,7 +10685,7 @@
         <v>513</v>
       </c>
       <c r="D270" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E270" t="s">
         <v>451</v>
@@ -10700,7 +10694,7 @@
         <v>448</v>
       </c>
       <c r="G270" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H270" t="s">
         <v>419</v>
@@ -10709,7 +10703,7 @@
         <v>430</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -10724,7 +10718,7 @@
         <v>513</v>
       </c>
       <c r="D271" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E271" t="s">
         <v>451</v>
@@ -10733,13 +10727,13 @@
         <v>421</v>
       </c>
       <c r="G271" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H271" t="s">
         <v>419</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -10754,7 +10748,7 @@
         <v>513</v>
       </c>
       <c r="D272" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E272" t="s">
         <v>451</v>
@@ -10763,13 +10757,13 @@
         <v>448</v>
       </c>
       <c r="G272" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H272" t="s">
         <v>419</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -10784,7 +10778,7 @@
         <v>513</v>
       </c>
       <c r="D273" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E273" t="s">
         <v>451</v>
@@ -10793,7 +10787,7 @@
         <v>448</v>
       </c>
       <c r="G273" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H273" t="s">
         <v>419</v>
@@ -10802,7 +10796,7 @@
         <v>430</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -10817,7 +10811,7 @@
         <v>513</v>
       </c>
       <c r="D274" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E274" t="s">
         <v>451</v>
@@ -10826,13 +10820,13 @@
         <v>421</v>
       </c>
       <c r="G274" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H274" t="s">
         <v>419</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -10847,7 +10841,7 @@
         <v>513</v>
       </c>
       <c r="D275" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E275" t="s">
         <v>451</v>
@@ -10856,13 +10850,13 @@
         <v>421</v>
       </c>
       <c r="G275" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H275" t="s">
         <v>419</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -10877,7 +10871,7 @@
         <v>513</v>
       </c>
       <c r="D276" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E276" t="s">
         <v>451</v>
@@ -10886,13 +10880,13 @@
         <v>448</v>
       </c>
       <c r="G276" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H276" t="s">
         <v>419</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -10907,7 +10901,7 @@
         <v>513</v>
       </c>
       <c r="D277" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E277" t="s">
         <v>451</v>
@@ -10916,7 +10910,7 @@
         <v>448</v>
       </c>
       <c r="G277" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H277" t="s">
         <v>419</v>
@@ -10925,7 +10919,7 @@
         <v>430</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -10940,7 +10934,7 @@
         <v>513</v>
       </c>
       <c r="D278" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E278" t="s">
         <v>451</v>
@@ -10949,13 +10943,13 @@
         <v>421</v>
       </c>
       <c r="G278" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H278" t="s">
         <v>419</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -10979,13 +10973,13 @@
         <v>448</v>
       </c>
       <c r="G279" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H279" t="s">
         <v>419</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -11009,7 +11003,7 @@
         <v>448</v>
       </c>
       <c r="G280" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H280" t="s">
         <v>419</v>
@@ -11018,7 +11012,7 @@
         <v>430</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -11042,13 +11036,13 @@
         <v>448</v>
       </c>
       <c r="G281" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H281" t="s">
         <v>419</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -11063,7 +11057,7 @@
         <v>513</v>
       </c>
       <c r="D282" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E282" t="s">
         <v>451</v>
@@ -11072,13 +11066,13 @@
         <v>421</v>
       </c>
       <c r="G282" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H282" t="s">
         <v>419</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -11093,7 +11087,7 @@
         <v>513</v>
       </c>
       <c r="D283" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E283" t="s">
         <v>484</v>
@@ -11102,13 +11096,13 @@
         <v>448</v>
       </c>
       <c r="G283" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H283" t="s">
         <v>419</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -11123,7 +11117,7 @@
         <v>513</v>
       </c>
       <c r="D284" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E284" t="s">
         <v>484</v>
@@ -11132,7 +11126,7 @@
         <v>448</v>
       </c>
       <c r="G284" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H284" t="s">
         <v>419</v>
@@ -11141,7 +11135,7 @@
         <v>430</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -11156,7 +11150,7 @@
         <v>513</v>
       </c>
       <c r="D285" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E285" t="s">
         <v>485</v>
@@ -11165,13 +11159,13 @@
         <v>448</v>
       </c>
       <c r="G285" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H285" t="s">
         <v>419</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -11186,7 +11180,7 @@
         <v>513</v>
       </c>
       <c r="D286" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E286" t="s">
         <v>485</v>
@@ -11195,7 +11189,7 @@
         <v>448</v>
       </c>
       <c r="G286" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H286" t="s">
         <v>419</v>
@@ -11204,7 +11198,7 @@
         <v>430</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -11228,13 +11222,13 @@
         <v>448</v>
       </c>
       <c r="G287" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H287" t="s">
         <v>419</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -11258,7 +11252,7 @@
         <v>448</v>
       </c>
       <c r="G288" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H288" t="s">
         <v>419</v>
@@ -11267,7 +11261,7 @@
         <v>430</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -11291,13 +11285,13 @@
         <v>421</v>
       </c>
       <c r="G289" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H289" t="s">
         <v>419</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -11312,22 +11306,22 @@
         <v>513</v>
       </c>
       <c r="D290" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E290" t="s">
         <v>451</v>
       </c>
       <c r="F290" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G290" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H290" t="s">
         <v>419</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -11351,13 +11345,13 @@
         <v>421</v>
       </c>
       <c r="G291" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H291" t="s">
         <v>419</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -11381,13 +11375,13 @@
         <v>448</v>
       </c>
       <c r="G292" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H292" t="s">
         <v>419</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -11411,13 +11405,13 @@
         <v>448</v>
       </c>
       <c r="G293" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H293" t="s">
         <v>419</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -11441,7 +11435,7 @@
         <v>448</v>
       </c>
       <c r="G294" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H294" t="s">
         <v>419</v>
@@ -11450,7 +11444,7 @@
         <v>430</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -11474,13 +11468,13 @@
         <v>448</v>
       </c>
       <c r="G295" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H295" t="s">
         <v>419</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -11504,7 +11498,7 @@
         <v>448</v>
       </c>
       <c r="G296" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H296" t="s">
         <v>419</v>
@@ -11513,7 +11507,7 @@
         <v>430</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -11537,13 +11531,13 @@
         <v>448</v>
       </c>
       <c r="G297" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H297" t="s">
         <v>419</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -11567,7 +11561,7 @@
         <v>448</v>
       </c>
       <c r="G298" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H298" t="s">
         <v>419</v>
@@ -11576,7 +11570,7 @@
         <v>430</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -11594,19 +11588,19 @@
         <v>529</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F299" t="s">
         <v>448</v>
       </c>
       <c r="G299" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H299" t="s">
         <v>419</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -11624,13 +11618,13 @@
         <v>529</v>
       </c>
       <c r="E300" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F300" t="s">
         <v>448</v>
       </c>
       <c r="G300" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H300" t="s">
         <v>419</v>
@@ -11639,7 +11633,7 @@
         <v>430</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -11657,19 +11651,19 @@
         <v>529</v>
       </c>
       <c r="E301" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F301" t="s">
         <v>448</v>
       </c>
       <c r="G301" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H301" t="s">
         <v>419</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -11687,13 +11681,13 @@
         <v>529</v>
       </c>
       <c r="E302" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F302" t="s">
         <v>448</v>
       </c>
       <c r="G302" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H302" t="s">
         <v>419</v>
@@ -11702,7 +11696,7 @@
         <v>430</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -11720,19 +11714,19 @@
         <v>529</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F303" t="s">
         <v>448</v>
       </c>
       <c r="G303" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H303" t="s">
         <v>419</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -11750,13 +11744,13 @@
         <v>529</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F304" t="s">
         <v>448</v>
       </c>
       <c r="G304" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H304" t="s">
         <v>419</v>
@@ -11765,7 +11759,7 @@
         <v>430</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -11780,7 +11774,7 @@
         <v>513</v>
       </c>
       <c r="D305" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E305" t="s">
         <v>422</v>
@@ -11789,13 +11783,13 @@
         <v>448</v>
       </c>
       <c r="G305" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H305" t="s">
         <v>419</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -11810,7 +11804,7 @@
         <v>513</v>
       </c>
       <c r="D306" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E306" t="s">
         <v>422</v>
@@ -11819,7 +11813,7 @@
         <v>448</v>
       </c>
       <c r="G306" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H306" t="s">
         <v>419</v>
@@ -11828,7 +11822,7 @@
         <v>430</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -11843,7 +11837,7 @@
         <v>513</v>
       </c>
       <c r="D307" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E307" t="s">
         <v>422</v>
@@ -11852,13 +11846,13 @@
         <v>448</v>
       </c>
       <c r="G307" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H307" t="s">
         <v>419</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -11873,7 +11867,7 @@
         <v>513</v>
       </c>
       <c r="D308" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E308" t="s">
         <v>422</v>
@@ -11882,7 +11876,7 @@
         <v>448</v>
       </c>
       <c r="G308" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H308" t="s">
         <v>419</v>
@@ -11891,7 +11885,7 @@
         <v>430</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -11906,7 +11900,7 @@
         <v>513</v>
       </c>
       <c r="D309" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E309" t="s">
         <v>422</v>
@@ -11915,13 +11909,13 @@
         <v>421</v>
       </c>
       <c r="G309" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H309" t="s">
         <v>419</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -11945,13 +11939,13 @@
         <v>448</v>
       </c>
       <c r="G310" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H310" t="s">
         <v>419</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -11966,7 +11960,7 @@
         <v>513</v>
       </c>
       <c r="D311" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E311" t="s">
         <v>422</v>
@@ -11975,13 +11969,13 @@
         <v>448</v>
       </c>
       <c r="G311" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H311" t="s">
         <v>419</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -11996,7 +11990,7 @@
         <v>513</v>
       </c>
       <c r="D312" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E312" t="s">
         <v>422</v>
@@ -12005,7 +11999,7 @@
         <v>448</v>
       </c>
       <c r="G312" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H312" t="s">
         <v>419</v>
@@ -12014,7 +12008,7 @@
         <v>430</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -12029,7 +12023,7 @@
         <v>513</v>
       </c>
       <c r="D313" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E313" t="s">
         <v>422</v>
@@ -12038,13 +12032,13 @@
         <v>421</v>
       </c>
       <c r="G313" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H313" t="s">
         <v>419</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -12059,7 +12053,7 @@
         <v>513</v>
       </c>
       <c r="D314" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E314" t="s">
         <v>422</v>
@@ -12068,13 +12062,13 @@
         <v>421</v>
       </c>
       <c r="G314" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H314" t="s">
         <v>419</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -12089,7 +12083,7 @@
         <v>513</v>
       </c>
       <c r="D315" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E315" t="s">
         <v>422</v>
@@ -12098,13 +12092,13 @@
         <v>448</v>
       </c>
       <c r="G315" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H315" t="s">
         <v>419</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -12119,7 +12113,7 @@
         <v>513</v>
       </c>
       <c r="D316" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E316" t="s">
         <v>422</v>
@@ -12128,7 +12122,7 @@
         <v>448</v>
       </c>
       <c r="G316" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H316" t="s">
         <v>419</v>
@@ -12137,7 +12131,7 @@
         <v>430</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -12152,7 +12146,7 @@
         <v>513</v>
       </c>
       <c r="D317" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E317" t="s">
         <v>422</v>
@@ -12161,13 +12155,13 @@
         <v>421</v>
       </c>
       <c r="G317" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H317" t="s">
         <v>419</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -12191,13 +12185,13 @@
         <v>448</v>
       </c>
       <c r="G318" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H318" t="s">
         <v>419</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -12221,7 +12215,7 @@
         <v>448</v>
       </c>
       <c r="G319" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H319" t="s">
         <v>419</v>
@@ -12230,7 +12224,7 @@
         <v>430</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -12242,7 +12236,7 @@
         <v>highway-construction-overlay-(def-all-osm)</v>
       </c>
       <c r="C320" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D320" t="s">
         <v>538</v>
@@ -12254,13 +12248,13 @@
         <v>448</v>
       </c>
       <c r="G320" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H320" t="s">
         <v>419</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -12272,25 +12266,25 @@
         <v>bridge_piste-trail_ski-case-(wnt-all-osm)</v>
       </c>
       <c r="C321" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D321" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E321" t="s">
         <v>451</v>
       </c>
       <c r="F321" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G321" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H321" t="s">
         <v>419</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -12302,25 +12296,25 @@
         <v>bridge_piste-trail_ski-line_base-(wnt-all-osm)</v>
       </c>
       <c r="C322" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D322" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E322" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F322" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G322" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H322" t="s">
         <v>419</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -12332,25 +12326,25 @@
         <v>bridge_piste-trail_ski-line_center-(wnt-all-osm)</v>
       </c>
       <c r="C323" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D323" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E323" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F323" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G323" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H323" t="s">
         <v>419</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -12362,10 +12356,10 @@
         <v>bridge_railway-general-case-(def-all-osm)</v>
       </c>
       <c r="C324" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D324" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E324" t="s">
         <v>451</v>
@@ -12374,13 +12368,13 @@
         <v>448</v>
       </c>
       <c r="G324" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H324" t="s">
         <v>419</v>
       </c>
       <c r="J324" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -12392,10 +12386,10 @@
         <v>bridge_railway-general-line-(def-all-osm)</v>
       </c>
       <c r="C325" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D325" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E325" t="s">
         <v>422</v>
@@ -12404,13 +12398,13 @@
         <v>448</v>
       </c>
       <c r="G325" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H325" t="s">
         <v>419</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -12424,14 +12418,14 @@
       <c r="C326" t="s">
         <v>310</v>
       </c>
-      <c r="E326" t="s">
+      <c r="D326" t="s">
         <v>451</v>
       </c>
       <c r="F326" t="s">
         <v>448</v>
       </c>
       <c r="G326" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H326" t="s">
         <v>419</v>
@@ -12448,14 +12442,14 @@
       <c r="C327" t="s">
         <v>310</v>
       </c>
-      <c r="E327" t="s">
+      <c r="D327" t="s">
         <v>422</v>
       </c>
       <c r="F327" t="s">
         <v>448</v>
       </c>
       <c r="G327" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H327" t="s">
         <v>419</v>
@@ -12479,7 +12473,7 @@
         <v>448</v>
       </c>
       <c r="G328" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H328" t="s">
         <v>419</v>
@@ -12503,7 +12497,7 @@
         <v>448</v>
       </c>
       <c r="G329" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H329" t="s">
         <v>419</v>
@@ -12530,7 +12524,7 @@
         <v>448</v>
       </c>
       <c r="G330" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H330" t="s">
         <v>419</v>
@@ -12554,10 +12548,10 @@
         <v>448</v>
       </c>
       <c r="G331" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H331" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -12581,10 +12575,10 @@
         <v>448</v>
       </c>
       <c r="G332" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H332" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -12608,10 +12602,10 @@
         <v>448</v>
       </c>
       <c r="G333" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H333" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -12626,7 +12620,7 @@
         <v>516</v>
       </c>
       <c r="D334" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E334" t="s">
         <v>489</v>
@@ -12635,10 +12629,10 @@
         <v>448</v>
       </c>
       <c r="G334" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H334" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -12653,7 +12647,7 @@
         <v>516</v>
       </c>
       <c r="D335" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E335" t="s">
         <v>490</v>
@@ -12662,10 +12656,10 @@
         <v>448</v>
       </c>
       <c r="G335" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H335" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -12677,22 +12671,22 @@
         <v>property-border-(def-all-mml_cadastre)</v>
       </c>
       <c r="C336" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D336" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F336" t="s">
         <v>448</v>
       </c>
       <c r="G336" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H336" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -12704,7 +12698,7 @@
         <v>property-id-(def-all-mml_cadastre)</v>
       </c>
       <c r="C337" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D337" t="s">
         <v>492</v>
@@ -12713,13 +12707,13 @@
         <v>448</v>
       </c>
       <c r="G337" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H337" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -12734,13 +12728,13 @@
         <v>491</v>
       </c>
       <c r="D338" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F338" t="s">
         <v>448</v>
       </c>
       <c r="G338" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H338" t="s">
         <v>419</v>
@@ -12764,7 +12758,7 @@
         <v>448</v>
       </c>
       <c r="G339" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H339" t="s">
         <v>419</v>
@@ -12788,7 +12782,7 @@
         <v>448</v>
       </c>
       <c r="G340" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H340" t="s">
         <v>419</v>
@@ -12803,7 +12797,7 @@
         <v>symbol-oneway-(def-all-osm)</v>
       </c>
       <c r="C341" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D341" t="s">
         <v>517</v>
@@ -12812,13 +12806,13 @@
         <v>448</v>
       </c>
       <c r="G341" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H341" t="s">
         <v>419</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -12830,7 +12824,7 @@
         <v>symbol-oneway-(def-all-osm-hc)</v>
       </c>
       <c r="C342" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D342" t="s">
         <v>517</v>
@@ -12839,7 +12833,7 @@
         <v>448</v>
       </c>
       <c r="G342" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H342" t="s">
         <v>419</v>
@@ -12848,7 +12842,7 @@
         <v>430</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -12860,7 +12854,7 @@
         <v>symbol-landuse-quarry-(def-fin-mml_topo)</v>
       </c>
       <c r="C343" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D343" t="s">
         <v>434</v>
@@ -12872,10 +12866,10 @@
         <v>448</v>
       </c>
       <c r="G343" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H343" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -12887,7 +12881,7 @@
         <v>symbol-landuse-quarry-(def-all-osm)</v>
       </c>
       <c r="C344" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D344" t="s">
         <v>434</v>
@@ -12899,7 +12893,7 @@
         <v>448</v>
       </c>
       <c r="G344" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H344" t="s">
         <v>419</v>
@@ -12914,19 +12908,19 @@
         <v>symbol-rock_boulder-(def-fin-mml_topo)</v>
       </c>
       <c r="C345" t="s">
+        <v>612</v>
+      </c>
+      <c r="D345" t="s">
         <v>614</v>
       </c>
-      <c r="D345" t="s">
-        <v>616</v>
-      </c>
       <c r="F345" t="s">
         <v>448</v>
       </c>
       <c r="G345" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H345" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -12938,22 +12932,22 @@
         <v>symbol-maritime-surface_rock-(def-fin-mml_topo)</v>
       </c>
       <c r="C346" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D346" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E346" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F346" t="s">
         <v>448</v>
       </c>
       <c r="G346" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H346" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -12965,7 +12959,7 @@
         <v>poi-small-(def-all-osm)</v>
       </c>
       <c r="C347" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D347" t="s">
         <v>494</v>
@@ -12974,7 +12968,7 @@
         <v>448</v>
       </c>
       <c r="G347" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H347" t="s">
         <v>419</v>
@@ -12989,7 +12983,7 @@
         <v>poi-medium-(def-all-osm)</v>
       </c>
       <c r="C348" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D348" t="s">
         <v>495</v>
@@ -12998,7 +12992,7 @@
         <v>448</v>
       </c>
       <c r="G348" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H348" t="s">
         <v>419</v>
@@ -13013,7 +13007,7 @@
         <v>poi-large-(def-all-osm)</v>
       </c>
       <c r="C349" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D349" t="s">
         <v>496</v>
@@ -13022,7 +13016,7 @@
         <v>448</v>
       </c>
       <c r="G349" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H349" t="s">
         <v>419</v>
@@ -13037,19 +13031,19 @@
         <v>poi-trailmap_additions-regular-(def-all-osm)</v>
       </c>
       <c r="C350" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D350" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E350" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F350" t="s">
         <v>448</v>
       </c>
       <c r="G350" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H350" t="s">
         <v>419</v>
@@ -13064,7 +13058,7 @@
         <v>poi-railway-(def-all-osm)</v>
       </c>
       <c r="C351" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D351" t="s">
         <v>461</v>
@@ -13073,7 +13067,7 @@
         <v>448</v>
       </c>
       <c r="G351" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H351" t="s">
         <v>419</v>
@@ -13091,7 +13085,7 @@
         <v>500</v>
       </c>
       <c r="D352" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E352" t="s">
         <v>493</v>
@@ -13100,13 +13094,13 @@
         <v>448</v>
       </c>
       <c r="G352" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H352" t="s">
         <v>419</v>
       </c>
       <c r="J352" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -13121,7 +13115,7 @@
         <v>500</v>
       </c>
       <c r="D353" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E353" t="s">
         <v>493</v>
@@ -13130,7 +13124,7 @@
         <v>448</v>
       </c>
       <c r="G353" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H353" t="s">
         <v>419</v>
@@ -13139,7 +13133,7 @@
         <v>430</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -13154,22 +13148,22 @@
         <v>500</v>
       </c>
       <c r="D354" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E354" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F354" t="s">
         <v>448</v>
       </c>
       <c r="G354" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H354" t="s">
         <v>419</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -13184,16 +13178,16 @@
         <v>500</v>
       </c>
       <c r="D355" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E355" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F355" t="s">
         <v>448</v>
       </c>
       <c r="G355" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H355" t="s">
         <v>419</v>
@@ -13202,7 +13196,7 @@
         <v>430</v>
       </c>
       <c r="J355" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -13217,7 +13211,7 @@
         <v>500</v>
       </c>
       <c r="D356" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E356" t="s">
         <v>489</v>
@@ -13226,13 +13220,13 @@
         <v>448</v>
       </c>
       <c r="G356" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H356" t="s">
         <v>419</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -13247,7 +13241,7 @@
         <v>500</v>
       </c>
       <c r="D357" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E357" t="s">
         <v>489</v>
@@ -13256,7 +13250,7 @@
         <v>448</v>
       </c>
       <c r="G357" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H357" t="s">
         <v>419</v>
@@ -13265,7 +13259,7 @@
         <v>430</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -13280,22 +13274,22 @@
         <v>500</v>
       </c>
       <c r="D358" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E358" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F358" t="s">
         <v>448</v>
       </c>
       <c r="G358" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H358" t="s">
         <v>419</v>
       </c>
       <c r="J358" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -13310,16 +13304,16 @@
         <v>500</v>
       </c>
       <c r="D359" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E359" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F359" t="s">
         <v>448</v>
       </c>
       <c r="G359" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H359" t="s">
         <v>419</v>
@@ -13328,7 +13322,7 @@
         <v>430</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -13340,22 +13334,22 @@
         <v>roadnumber-non_us-(def-all-osm)</v>
       </c>
       <c r="C360" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D360" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F360" t="s">
         <v>448</v>
       </c>
       <c r="G360" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H360" t="s">
         <v>419</v>
       </c>
       <c r="J360" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -13367,7 +13361,7 @@
         <v>poi-airport-major-(def-all-osm)</v>
       </c>
       <c r="C361" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D361" t="s">
         <v>519</v>
@@ -13379,13 +13373,13 @@
         <v>448</v>
       </c>
       <c r="G361" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H361" t="s">
         <v>419</v>
       </c>
       <c r="J361" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -13397,7 +13391,7 @@
         <v>poi-parking-(def-all-osm)</v>
       </c>
       <c r="C362" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D362" t="s">
         <v>520</v>
@@ -13406,7 +13400,7 @@
         <v>448</v>
       </c>
       <c r="G362" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H362" t="s">
         <v>419</v>
@@ -13421,7 +13415,7 @@
         <v>poi-fixme-(def-all-osm)</v>
       </c>
       <c r="C363" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D363" t="s">
         <v>521</v>
@@ -13430,7 +13424,7 @@
         <v>448</v>
       </c>
       <c r="G363" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H363" t="s">
         <v>419</v>
@@ -13445,7 +13439,7 @@
         <v>poi-noexit-(def-all-osm)</v>
       </c>
       <c r="C364" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D364" t="s">
         <v>522</v>
@@ -13454,7 +13448,7 @@
         <v>448</v>
       </c>
       <c r="G364" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H364" t="s">
         <v>419</v>
@@ -13481,13 +13475,13 @@
         <v>448</v>
       </c>
       <c r="G365" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H365" t="s">
         <v>419</v>
       </c>
       <c r="J365" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -13511,13 +13505,13 @@
         <v>448</v>
       </c>
       <c r="G366" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H366" t="s">
         <v>419</v>
       </c>
       <c r="J366" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -13541,13 +13535,13 @@
         <v>448</v>
       </c>
       <c r="G367" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H367" t="s">
         <v>419</v>
       </c>
       <c r="J367" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
@@ -13571,13 +13565,13 @@
         <v>448</v>
       </c>
       <c r="G368" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H368" t="s">
         <v>419</v>
       </c>
       <c r="J368" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
@@ -13591,20 +13585,20 @@
       <c r="C369" t="s">
         <v>523</v>
       </c>
-      <c r="E369" t="s">
+      <c r="D369" t="s">
         <v>504</v>
       </c>
       <c r="F369" t="s">
         <v>448</v>
       </c>
       <c r="G369" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H369" t="s">
         <v>419</v>
       </c>
       <c r="J369" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
@@ -13618,20 +13612,20 @@
       <c r="C370" t="s">
         <v>523</v>
       </c>
-      <c r="E370" t="s">
+      <c r="D370" t="s">
         <v>487</v>
       </c>
       <c r="F370" t="s">
         <v>448</v>
       </c>
       <c r="G370" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H370" t="s">
         <v>419</v>
       </c>
       <c r="J370" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
@@ -13643,19 +13637,19 @@
         <v>mml_conservation-legend-(def-fin-mml_topo)</v>
       </c>
       <c r="C371" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D371" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F371" t="s">
         <v>448</v>
       </c>
       <c r="G371" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H371" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
@@ -13667,19 +13661,19 @@
         <v>poi-legend-(def-fin-mml_topo)</v>
       </c>
       <c r="C372" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D372" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F372" t="s">
         <v>448</v>
       </c>
       <c r="G372" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H372" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
@@ -13691,7 +13685,7 @@
         <v>poi-small-(def-fin-mml_topo)</v>
       </c>
       <c r="C373" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D373" t="s">
         <v>494</v>
@@ -13700,10 +13694,10 @@
         <v>448</v>
       </c>
       <c r="G373" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H373" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
@@ -13715,7 +13709,7 @@
         <v>poi-small-(def-fin-mml_topo-hc)</v>
       </c>
       <c r="C374" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D374" t="s">
         <v>494</v>
@@ -13724,10 +13718,10 @@
         <v>448</v>
       </c>
       <c r="G374" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H374" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I374" s="6" t="s">
         <v>430</v>
@@ -13742,7 +13736,7 @@
         <v>poi-medium-(def-fin-mml_topo)</v>
       </c>
       <c r="C375" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D375" t="s">
         <v>495</v>
@@ -13751,10 +13745,10 @@
         <v>448</v>
       </c>
       <c r="G375" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H375" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -13766,7 +13760,7 @@
         <v>poi-medium-(def-fin-mml_topo-hc)</v>
       </c>
       <c r="C376" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D376" t="s">
         <v>495</v>
@@ -13775,10 +13769,10 @@
         <v>448</v>
       </c>
       <c r="G376" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H376" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I376" s="6" t="s">
         <v>430</v>
@@ -13793,7 +13787,7 @@
         <v>poi-large-(def-fin-mml_topo)</v>
       </c>
       <c r="C377" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D377" t="s">
         <v>496</v>
@@ -13802,10 +13796,10 @@
         <v>448</v>
       </c>
       <c r="G377" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H377" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -13817,7 +13811,7 @@
         <v>poi-large-(def-fin-mml_topo-hc)</v>
       </c>
       <c r="C378" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D378" t="s">
         <v>496</v>
@@ -13826,10 +13820,10 @@
         <v>448</v>
       </c>
       <c r="G378" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H378" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I378" s="6" t="s">
         <v>430</v>
@@ -13853,7 +13847,7 @@
         <v>448</v>
       </c>
       <c r="G379" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H379" t="s">
         <v>419</v>
@@ -13877,7 +13871,7 @@
         <v>448</v>
       </c>
       <c r="G380" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H380" t="s">
         <v>419</v>
@@ -13901,7 +13895,7 @@
         <v>448</v>
       </c>
       <c r="G381" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H381" t="s">
         <v>419</v>
@@ -13925,7 +13919,7 @@
         <v>448</v>
       </c>
       <c r="G382" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H382" t="s">
         <v>419</v>
@@ -13949,7 +13943,7 @@
         <v>448</v>
       </c>
       <c r="G383" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H383" t="s">
         <v>419</v>
@@ -13976,7 +13970,7 @@
         <v>448</v>
       </c>
       <c r="G384" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H384" t="s">
         <v>419</v>
@@ -14003,7 +13997,7 @@
         <v>448</v>
       </c>
       <c r="G385" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H385" t="s">
         <v>419</v>
@@ -14030,7 +14024,7 @@
         <v>448</v>
       </c>
       <c r="G386" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H386" t="s">
         <v>419</v>
@@ -14057,7 +14051,7 @@
         <v>448</v>
       </c>
       <c r="G387" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H387" t="s">
         <v>419</v>
@@ -14081,7 +14075,7 @@
         <v>448</v>
       </c>
       <c r="G388" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H388" t="s">
         <v>419</v>
@@ -14096,10 +14090,10 @@
         <v>poi-trailmap_additions-priority-(def-all-osm)</v>
       </c>
       <c r="C389" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D389" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E389" t="s">
         <v>503</v>
@@ -14108,7 +14102,7 @@
         <v>448</v>
       </c>
       <c r="G389" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H389" t="s">
         <v>419</v>
@@ -14132,7 +14126,7 @@
         <v>448</v>
       </c>
       <c r="G390" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H390" t="s">
         <v>419</v>
@@ -14147,22 +14141,22 @@
         <v>route_separate-bicycle-(route-all-osm)</v>
       </c>
       <c r="C391" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D391" t="s">
         <v>477</v>
       </c>
       <c r="F391" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G391" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H391" t="s">
         <v>419</v>
       </c>
       <c r="J391" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
@@ -14174,22 +14168,22 @@
         <v>route_separate-mtb-(route-all-osm)</v>
       </c>
       <c r="C392" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D392" t="s">
         <v>525</v>
       </c>
       <c r="F392" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G392" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H392" t="s">
         <v>419</v>
       </c>
       <c r="J392" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
@@ -14201,22 +14195,22 @@
         <v>route_separate-hike-(route-all-osm)</v>
       </c>
       <c r="C393" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D393" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F393" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G393" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H393" t="s">
         <v>419</v>
       </c>
       <c r="J393" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
@@ -14228,22 +14222,22 @@
         <v>route_separate-bicycle-(route-all-lipas_routes)</v>
       </c>
       <c r="C394" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D394" t="s">
         <v>477</v>
       </c>
       <c r="F394" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G394" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H394" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J394" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -14255,22 +14249,22 @@
         <v>route_separate-mtb-(route-all-lipas_routes)</v>
       </c>
       <c r="C395" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D395" t="s">
         <v>525</v>
       </c>
       <c r="F395" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G395" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H395" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J395" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
@@ -14282,22 +14276,22 @@
         <v>route_separate-hike-(route-all-lipas_routes)</v>
       </c>
       <c r="C396" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D396" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F396" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G396" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H396" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J396" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -14309,22 +14303,22 @@
         <v>route_separate-walk-(route-all-lipas_routes)</v>
       </c>
       <c r="C397" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D397" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F397" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G397" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H397" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J397" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -14336,25 +14330,25 @@
         <v>poi_separate-uncategorized-circle-(poi_lipas-fin-lipas_points)</v>
       </c>
       <c r="C398" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D398" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E398" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F398" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G398" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H398" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J398" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -14366,25 +14360,25 @@
         <v>poi_separate-uncategorized-icon-(poi_lipas-fin-lipas_points)</v>
       </c>
       <c r="C399" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D399" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E399" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F399" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G399" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H399" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J399" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -14396,25 +14390,25 @@
         <v>poi_separate-uncategorized-label-(poi_lipas-fin-lipas_points)</v>
       </c>
       <c r="C400" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D400" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E400" t="s">
         <v>424</v>
       </c>
       <c r="F400" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G400" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H400" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J400" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
@@ -14426,25 +14420,25 @@
         <v>poi_separate-uncategorized-circle-(poi_osm-all-osm)</v>
       </c>
       <c r="C401" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D401" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E401" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F401" t="s">
         <v>518</v>
       </c>
       <c r="G401" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H401" t="s">
         <v>419</v>
       </c>
       <c r="J401" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
@@ -14456,25 +14450,25 @@
         <v>poi_separate-uncategorized-icon-(poi_osm-all-osm)</v>
       </c>
       <c r="C402" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D402" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E402" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F402" t="s">
         <v>518</v>
       </c>
       <c r="G402" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H402" t="s">
         <v>419</v>
       </c>
       <c r="J402" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
@@ -14486,10 +14480,10 @@
         <v>poi_separate-uncategorized-label-(poi_osm-all-osm)</v>
       </c>
       <c r="C403" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D403" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E403" t="s">
         <v>424</v>
@@ -14498,13 +14492,13 @@
         <v>518</v>
       </c>
       <c r="G403" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H403" t="s">
         <v>419</v>
       </c>
       <c r="J403" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -14516,25 +14510,25 @@
         <v>poi_separate-camping-circle-(poi_lipas-fin-lipas_points)</v>
       </c>
       <c r="C404" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D404" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E404" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F404" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G404" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H404" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J404" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -14546,25 +14540,25 @@
         <v>poi_separate-camping-icon-(poi_lipas-fin-lipas_points)</v>
       </c>
       <c r="C405" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D405" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E405" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F405" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G405" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H405" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J405" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
@@ -14576,25 +14570,25 @@
         <v>poi_separate-camping-label-(poi_lipas-fin-lipas_points)</v>
       </c>
       <c r="C406" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D406" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E406" t="s">
         <v>424</v>
       </c>
       <c r="F406" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G406" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H406" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J406" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
@@ -14606,25 +14600,25 @@
         <v>poi_separate-hobby-circle-(poi_lipas-fin-lipas_points)</v>
       </c>
       <c r="C407" t="s">
+        <v>630</v>
+      </c>
+      <c r="D407" t="s">
         <v>632</v>
       </c>
-      <c r="D407" t="s">
-        <v>634</v>
-      </c>
       <c r="E407" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F407" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G407" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H407" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J407" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
@@ -14636,25 +14630,25 @@
         <v>poi_separate-hobby-icon-(poi_lipas-fin-lipas_points)</v>
       </c>
       <c r="C408" t="s">
+        <v>630</v>
+      </c>
+      <c r="D408" t="s">
         <v>632</v>
       </c>
-      <c r="D408" t="s">
-        <v>634</v>
-      </c>
       <c r="E408" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F408" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G408" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H408" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J408" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -14666,25 +14660,25 @@
         <v>poi_separate-hobby-label-(poi_lipas-fin-lipas_points)</v>
       </c>
       <c r="C409" t="s">
+        <v>630</v>
+      </c>
+      <c r="D409" t="s">
         <v>632</v>
-      </c>
-      <c r="D409" t="s">
-        <v>634</v>
       </c>
       <c r="E409" t="s">
         <v>424</v>
       </c>
       <c r="F409" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G409" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H409" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J409" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
@@ -14696,25 +14690,25 @@
         <v>poi_separate-attraction-circle-(poi_osm-all-osm)</v>
       </c>
       <c r="C410" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D410" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E410" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F410" t="s">
         <v>518</v>
       </c>
       <c r="G410" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H410" t="s">
         <v>419</v>
       </c>
       <c r="J410" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
@@ -14726,25 +14720,25 @@
         <v>poi_separate-attraction-icon-(poi_osm-all-osm)</v>
       </c>
       <c r="C411" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D411" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E411" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F411" t="s">
         <v>518</v>
       </c>
       <c r="G411" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H411" t="s">
         <v>419</v>
       </c>
       <c r="J411" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
@@ -14756,10 +14750,10 @@
         <v>poi_separate-attraction-label-(poi_osm-all-osm)</v>
       </c>
       <c r="C412" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D412" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E412" t="s">
         <v>424</v>
@@ -14768,13 +14762,13 @@
         <v>518</v>
       </c>
       <c r="G412" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H412" t="s">
         <v>419</v>
       </c>
       <c r="J412" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
@@ -14786,25 +14780,25 @@
         <v>poi_separate-lodging-circle-(poi_osm-all-osm)</v>
       </c>
       <c r="C413" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D413" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E413" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F413" t="s">
         <v>518</v>
       </c>
       <c r="G413" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H413" t="s">
         <v>419</v>
       </c>
       <c r="J413" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -14816,25 +14810,25 @@
         <v>poi_separate-lodging-icon-(poi_osm-all-osm)</v>
       </c>
       <c r="C414" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D414" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E414" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F414" t="s">
         <v>518</v>
       </c>
       <c r="G414" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H414" t="s">
         <v>419</v>
       </c>
       <c r="J414" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
@@ -14846,10 +14840,10 @@
         <v>poi_separate-lodging-label-(poi_osm-all-osm)</v>
       </c>
       <c r="C415" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D415" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E415" t="s">
         <v>424</v>
@@ -14858,13 +14852,13 @@
         <v>518</v>
       </c>
       <c r="G415" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H415" t="s">
         <v>419</v>
       </c>
       <c r="J415" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
@@ -14876,25 +14870,25 @@
         <v>poi_separate-break-circle-(poi_osm-all-osm)</v>
       </c>
       <c r="C416" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D416" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E416" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F416" t="s">
         <v>518</v>
       </c>
       <c r="G416" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H416" t="s">
         <v>419</v>
       </c>
       <c r="J416" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
@@ -14906,25 +14900,25 @@
         <v>poi_separate-break-icon-(poi_osm-all-osm)</v>
       </c>
       <c r="C417" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D417" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E417" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F417" t="s">
         <v>518</v>
       </c>
       <c r="G417" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H417" t="s">
         <v>419</v>
       </c>
       <c r="J417" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
@@ -14936,10 +14930,10 @@
         <v>poi_separate-break-label-(poi_osm-all-osm)</v>
       </c>
       <c r="C418" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D418" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E418" t="s">
         <v>424</v>
@@ -14948,13 +14942,13 @@
         <v>518</v>
       </c>
       <c r="G418" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H418" t="s">
         <v>419</v>
       </c>
       <c r="J418" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
@@ -14966,25 +14960,25 @@
         <v>poi_separate-supplies_maintenance-circle-(poi_osm-all-osm)</v>
       </c>
       <c r="C419" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D419" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E419" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F419" t="s">
         <v>518</v>
       </c>
       <c r="G419" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H419" t="s">
         <v>419</v>
       </c>
       <c r="J419" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
@@ -14996,25 +14990,25 @@
         <v>poi_separate-supplies_maintenance-icon-(poi_osm-all-osm)</v>
       </c>
       <c r="C420" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D420" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E420" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F420" t="s">
         <v>518</v>
       </c>
       <c r="G420" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H420" t="s">
         <v>419</v>
       </c>
       <c r="J420" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
@@ -15026,10 +15020,10 @@
         <v>poi_separate-supplies_maintenance-label-(poi_osm-all-osm)</v>
       </c>
       <c r="C421" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D421" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E421" t="s">
         <v>424</v>
@@ -15038,13 +15032,13 @@
         <v>518</v>
       </c>
       <c r="G421" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H421" t="s">
         <v>419</v>
       </c>
       <c r="J421" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
@@ -15056,25 +15050,25 @@
         <v>poi_separate-traffic-circle-(poi_osm-all-osm)</v>
       </c>
       <c r="C422" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D422" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E422" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F422" t="s">
         <v>518</v>
       </c>
       <c r="G422" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H422" t="s">
         <v>419</v>
       </c>
       <c r="J422" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
@@ -15086,25 +15080,25 @@
         <v>poi_separate-traffic-icon-(poi_osm-all-osm)</v>
       </c>
       <c r="C423" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D423" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E423" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F423" t="s">
         <v>518</v>
       </c>
       <c r="G423" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H423" t="s">
         <v>419</v>
       </c>
       <c r="J423" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
@@ -15116,10 +15110,10 @@
         <v>poi_separate-traffic-label-(poi_osm-all-osm)</v>
       </c>
       <c r="C424" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D424" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E424" t="s">
         <v>424</v>
@@ -15128,13 +15122,13 @@
         <v>518</v>
       </c>
       <c r="G424" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H424" t="s">
         <v>419</v>
       </c>
       <c r="J424" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
@@ -15146,25 +15140,25 @@
         <v>poi_separate-car_parking-circle-(poi_osm-all-osm)</v>
       </c>
       <c r="C425" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D425" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E425" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F425" t="s">
         <v>518</v>
       </c>
       <c r="G425" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H425" t="s">
         <v>419</v>
       </c>
       <c r="J425" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
@@ -15176,25 +15170,25 @@
         <v>poi_separate-car_parking-icon-(poi_osm-all-osm)</v>
       </c>
       <c r="C426" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D426" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E426" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F426" t="s">
         <v>518</v>
       </c>
       <c r="G426" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H426" t="s">
         <v>419</v>
       </c>
       <c r="J426" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
@@ -15206,10 +15200,10 @@
         <v>poi_separate-car_parking-label-(poi_osm-all-osm)</v>
       </c>
       <c r="C427" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D427" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E427" t="s">
         <v>424</v>
@@ -15218,13 +15212,13 @@
         <v>518</v>
       </c>
       <c r="G427" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H427" t="s">
         <v>419</v>
       </c>
       <c r="J427" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/style_ids.xlsx
+++ b/style_ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\mtb-trailmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BB8D27-2110-40EE-BC89-0712C02DF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C4E4DE-A31A-484A-BB76-F7CBF1B0A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{C589A0E4-6D1B-4D89-868D-0F4B65CA5C94}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="677">
   <si>
     <t>background</t>
   </si>
@@ -2941,7 +2941,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E326" sqref="E326:E327"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3557,13 +3557,16 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>landcover-scrub-(def-all-osm)</v>
+        <v>landcover-scrub-nowoods-(def-all-osm)</v>
       </c>
       <c r="C25" t="s">
         <v>416</v>
       </c>
       <c r="D25" t="s">
         <v>417</v>
+      </c>
+      <c r="E25" t="s">
+        <v>426</v>
       </c>
       <c r="F25" t="s">
         <v>448</v>
@@ -8510,7 +8513,7 @@
       </c>
       <c r="B198" t="str">
         <f t="shared" si="3"/>
-        <v>highway-trunk-case-(def-all-osm)</v>
+        <v>highway-trunk-case-(wnt-all-osm)</v>
       </c>
       <c r="C198" t="s">
         <v>550</v>
@@ -8522,7 +8525,7 @@
         <v>451</v>
       </c>
       <c r="F198" t="s">
-        <v>448</v>
+        <v>553</v>
       </c>
       <c r="G198" t="s">
         <v>658</v>
@@ -8540,7 +8543,7 @@
       </c>
       <c r="B199" t="str">
         <f t="shared" si="3"/>
-        <v>highway-trunk-case-(wnt-all-osm)</v>
+        <v>highway-trunk-case-(gr-all-osm)</v>
       </c>
       <c r="C199" t="s">
         <v>550</v>
@@ -8552,7 +8555,7 @@
         <v>451</v>
       </c>
       <c r="F199" t="s">
-        <v>553</v>
+        <v>421</v>
       </c>
       <c r="G199" t="s">
         <v>658</v>
@@ -10019,7 +10022,7 @@
       </c>
       <c r="B247" t="str">
         <f t="shared" si="3"/>
-        <v>access-bicycle_winter-no-(def-all-osm)</v>
+        <v>access-bicycle_winter-no-(wnt-all-osm)</v>
       </c>
       <c r="C247" t="s">
         <v>552</v>
@@ -10031,7 +10034,7 @@
         <v>563</v>
       </c>
       <c r="F247" t="s">
-        <v>448</v>
+        <v>553</v>
       </c>
       <c r="G247" t="s">
         <v>658</v>

--- a/style_ids.xlsx
+++ b/style_ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\mtb-trailmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C4E4DE-A31A-484A-BB76-F7CBF1B0A3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBD4B83-7557-4D93-AED7-FD1483B266BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{C589A0E4-6D1B-4D89-868D-0F4B65CA5C94}"/>
   </bookViews>
@@ -2941,19 +2941,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
